--- a/Secretarias/SEGOB/DGRC/DGRC_OK.xlsx
+++ b/Secretarias/SEGOB/DGRC/DGRC_OK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sociodemograficos01\Documents\GitHub\MapasTematicos\Secretarias\SEGOB\DGRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\SEGOB\DGRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A8D38E-EF9D-4B6F-8A9E-19BCEC47CD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8BBB09-9516-49F9-87E6-FA971E979DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E9021F97-32AA-4EBE-9B95-0277243EC04C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E9021F97-32AA-4EBE-9B95-0277243EC04C}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3509,7 +3498,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3611,6 +3600,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Euro" xfId="2" xr:uid="{D112E9D3-06DA-4AB5-8777-0DC4B521E4BF}"/>
@@ -3637,9 +3629,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3677,7 +3669,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3783,7 +3775,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3925,7 +3917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3939,19 +3931,19 @@
       <selection activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="14" customWidth="1"/>
     <col min="3" max="3" width="34" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="24.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -17601,7 +17593,7 @@
       <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="27" t="s">
@@ -24432,10 +24424,10 @@
       <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -31268,12 +31260,12 @@
   <dimension ref="A1:J333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -31321,24 +31313,23 @@
       <c r="D2" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="E2" s="30">
-        <v>47</v>
-      </c>
-      <c r="F2" s="30">
-        <v>18</v>
-      </c>
-      <c r="G2" s="30">
-        <v>1</v>
-      </c>
-      <c r="H2" s="30">
-        <v>11</v>
-      </c>
-      <c r="I2" s="30">
+      <c r="E2" s="37">
+        <v>118</v>
+      </c>
+      <c r="F2" s="37">
+        <v>33</v>
+      </c>
+      <c r="G2" s="37">
+        <v>5</v>
+      </c>
+      <c r="H2" s="37">
+        <v>31</v>
+      </c>
+      <c r="I2" s="37">
         <v>0</v>
       </c>
-      <c r="J2" s="30">
-        <f>SUM(E2:I2)</f>
-        <v>77</v>
+      <c r="J2" s="37">
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -31354,24 +31345,23 @@
       <c r="D3" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="E3" s="30">
-        <v>13</v>
-      </c>
-      <c r="F3" s="30">
-        <v>2</v>
-      </c>
-      <c r="G3" s="30">
-        <v>2</v>
-      </c>
-      <c r="H3" s="30">
+      <c r="E3" s="37">
+        <v>34</v>
+      </c>
+      <c r="F3" s="37">
+        <v>6</v>
+      </c>
+      <c r="G3" s="37">
         <v>5</v>
       </c>
-      <c r="I3" s="30">
+      <c r="H3" s="37">
+        <v>14</v>
+      </c>
+      <c r="I3" s="37">
         <v>1</v>
       </c>
-      <c r="J3" s="30">
-        <f t="shared" ref="J3:J66" si="0">SUM(E3:I3)</f>
-        <v>23</v>
+      <c r="J3" s="37">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -31387,24 +31377,23 @@
       <c r="D4" s="30" t="s">
         <v>647</v>
       </c>
-      <c r="E4" s="30">
-        <v>274</v>
-      </c>
-      <c r="F4" s="30">
-        <v>163</v>
-      </c>
-      <c r="G4" s="30">
-        <v>41</v>
-      </c>
-      <c r="H4" s="30">
-        <v>132</v>
-      </c>
-      <c r="I4" s="30">
-        <v>2</v>
-      </c>
-      <c r="J4" s="30">
-        <f t="shared" si="0"/>
-        <v>612</v>
+      <c r="E4" s="37">
+        <v>731</v>
+      </c>
+      <c r="F4" s="37">
+        <v>317</v>
+      </c>
+      <c r="G4" s="37">
+        <v>142</v>
+      </c>
+      <c r="H4" s="37">
+        <v>417</v>
+      </c>
+      <c r="I4" s="37">
+        <v>3</v>
+      </c>
+      <c r="J4" s="37">
+        <v>1610</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -31420,24 +31409,23 @@
       <c r="D5" s="30" t="s">
         <v>648</v>
       </c>
-      <c r="E5" s="30">
-        <v>78</v>
-      </c>
-      <c r="F5" s="30">
-        <v>62</v>
-      </c>
-      <c r="G5" s="30">
-        <v>9</v>
-      </c>
-      <c r="H5" s="30">
-        <v>57</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <f t="shared" si="0"/>
-        <v>206</v>
+      <c r="E5" s="37">
+        <v>218</v>
+      </c>
+      <c r="F5" s="37">
+        <v>91</v>
+      </c>
+      <c r="G5" s="37">
+        <v>30</v>
+      </c>
+      <c r="H5" s="37">
+        <v>211</v>
+      </c>
+      <c r="I5" s="37">
+        <v>2</v>
+      </c>
+      <c r="J5" s="37">
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -31453,24 +31441,23 @@
       <c r="D6" s="30" t="s">
         <v>649</v>
       </c>
-      <c r="E6" s="30">
-        <v>21</v>
-      </c>
-      <c r="F6" s="30">
-        <v>24</v>
-      </c>
-      <c r="G6" s="30">
-        <v>5</v>
-      </c>
-      <c r="H6" s="30">
-        <v>3</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="E6" s="37">
+        <v>47</v>
+      </c>
+      <c r="F6" s="37">
+        <v>33</v>
+      </c>
+      <c r="G6" s="37">
+        <v>12</v>
+      </c>
+      <c r="H6" s="37">
+        <v>23</v>
+      </c>
+      <c r="I6" s="37">
+        <v>1</v>
+      </c>
+      <c r="J6" s="37">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -31486,24 +31473,23 @@
       <c r="D7" s="30" t="s">
         <v>650</v>
       </c>
-      <c r="E7" s="30">
-        <v>92</v>
-      </c>
-      <c r="F7" s="30">
-        <v>53</v>
-      </c>
-      <c r="G7" s="30">
-        <v>9</v>
-      </c>
-      <c r="H7" s="30">
-        <v>25</v>
-      </c>
-      <c r="I7" s="30">
-        <v>1</v>
-      </c>
-      <c r="J7" s="30">
-        <f t="shared" si="0"/>
-        <v>180</v>
+      <c r="E7" s="37">
+        <v>314</v>
+      </c>
+      <c r="F7" s="37">
+        <v>81</v>
+      </c>
+      <c r="G7" s="37">
+        <v>24</v>
+      </c>
+      <c r="H7" s="37">
+        <v>72</v>
+      </c>
+      <c r="I7" s="37">
+        <v>10</v>
+      </c>
+      <c r="J7" s="37">
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -31519,24 +31505,23 @@
       <c r="D8" s="30" t="s">
         <v>845</v>
       </c>
-      <c r="E8" s="30">
-        <v>93</v>
-      </c>
-      <c r="F8" s="30">
-        <v>79</v>
-      </c>
-      <c r="G8" s="30">
-        <v>38</v>
-      </c>
-      <c r="H8" s="30">
-        <v>56</v>
-      </c>
-      <c r="I8" s="30">
+      <c r="E8" s="37">
+        <v>273</v>
+      </c>
+      <c r="F8" s="37">
+        <v>148</v>
+      </c>
+      <c r="G8" s="37">
+        <v>114</v>
+      </c>
+      <c r="H8" s="37">
+        <v>175</v>
+      </c>
+      <c r="I8" s="37">
         <v>0</v>
       </c>
-      <c r="J8" s="30">
-        <f t="shared" si="0"/>
-        <v>266</v>
+      <c r="J8" s="37">
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -31552,24 +31537,23 @@
       <c r="D9" s="30" t="s">
         <v>801</v>
       </c>
-      <c r="E9" s="30">
-        <v>58</v>
-      </c>
-      <c r="F9" s="30">
-        <v>30</v>
-      </c>
-      <c r="G9" s="30">
-        <v>3</v>
-      </c>
-      <c r="H9" s="30">
-        <v>12</v>
-      </c>
-      <c r="I9" s="30">
+      <c r="E9" s="37">
+        <v>149</v>
+      </c>
+      <c r="F9" s="37">
+        <v>44</v>
+      </c>
+      <c r="G9" s="37">
+        <v>7</v>
+      </c>
+      <c r="H9" s="37">
+        <v>39</v>
+      </c>
+      <c r="I9" s="37">
         <v>0</v>
       </c>
-      <c r="J9" s="30">
-        <f t="shared" si="0"/>
-        <v>103</v>
+      <c r="J9" s="37">
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -31585,24 +31569,23 @@
       <c r="D10" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="E10" s="30">
-        <v>65</v>
-      </c>
-      <c r="F10" s="30">
-        <v>47</v>
-      </c>
-      <c r="G10" s="30">
-        <v>4</v>
-      </c>
-      <c r="H10" s="30">
-        <v>50</v>
-      </c>
-      <c r="I10" s="30">
+      <c r="E10" s="37">
+        <v>188</v>
+      </c>
+      <c r="F10" s="37">
+        <v>66</v>
+      </c>
+      <c r="G10" s="37">
+        <v>19</v>
+      </c>
+      <c r="H10" s="37">
+        <v>176</v>
+      </c>
+      <c r="I10" s="37">
         <v>1</v>
       </c>
-      <c r="J10" s="30">
-        <f t="shared" si="0"/>
-        <v>167</v>
+      <c r="J10" s="37">
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -31618,24 +31601,23 @@
       <c r="D11" s="30" t="s">
         <v>653</v>
       </c>
-      <c r="E11" s="30">
-        <v>297</v>
-      </c>
-      <c r="F11" s="30">
-        <v>81</v>
-      </c>
-      <c r="G11" s="30">
-        <v>12</v>
-      </c>
-      <c r="H11" s="30">
-        <v>85</v>
-      </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <f t="shared" si="0"/>
-        <v>475</v>
+      <c r="E11" s="37">
+        <v>923</v>
+      </c>
+      <c r="F11" s="37">
+        <v>123</v>
+      </c>
+      <c r="G11" s="37">
+        <v>31</v>
+      </c>
+      <c r="H11" s="37">
+        <v>250</v>
+      </c>
+      <c r="I11" s="37">
+        <v>3</v>
+      </c>
+      <c r="J11" s="37">
+        <v>1330</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -31651,24 +31633,23 @@
       <c r="D12" s="30" t="s">
         <v>654</v>
       </c>
-      <c r="E12" s="30">
-        <v>120</v>
-      </c>
-      <c r="F12" s="30">
-        <v>131</v>
-      </c>
-      <c r="G12" s="30">
-        <v>31</v>
-      </c>
-      <c r="H12" s="30">
-        <v>51</v>
-      </c>
-      <c r="I12" s="30">
+      <c r="E12" s="37">
+        <v>315</v>
+      </c>
+      <c r="F12" s="37">
+        <v>225</v>
+      </c>
+      <c r="G12" s="37">
+        <v>80</v>
+      </c>
+      <c r="H12" s="37">
+        <v>185</v>
+      </c>
+      <c r="I12" s="37">
         <v>0</v>
       </c>
-      <c r="J12" s="30">
-        <f t="shared" si="0"/>
-        <v>333</v>
+      <c r="J12" s="37">
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -31684,24 +31665,23 @@
       <c r="D13" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="E13" s="30">
-        <v>27</v>
-      </c>
-      <c r="F13" s="30">
-        <v>14</v>
-      </c>
-      <c r="G13" s="30">
-        <v>14</v>
-      </c>
-      <c r="H13" s="30">
-        <v>11</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="E13" s="37">
+        <v>68</v>
+      </c>
+      <c r="F13" s="37">
+        <v>33</v>
+      </c>
+      <c r="G13" s="37">
+        <v>22</v>
+      </c>
+      <c r="H13" s="37">
+        <v>43</v>
+      </c>
+      <c r="I13" s="37">
         <v>0</v>
       </c>
-      <c r="J13" s="30">
-        <f t="shared" si="0"/>
-        <v>66</v>
+      <c r="J13" s="37">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -31717,24 +31697,23 @@
       <c r="D14" s="30" t="s">
         <v>656</v>
       </c>
-      <c r="E14" s="30">
-        <v>67</v>
-      </c>
-      <c r="F14" s="30">
-        <v>89</v>
-      </c>
-      <c r="G14" s="30">
-        <v>14</v>
-      </c>
-      <c r="H14" s="30">
-        <v>53</v>
-      </c>
-      <c r="I14" s="30">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
-        <f t="shared" si="0"/>
-        <v>223</v>
+      <c r="E14" s="37">
+        <v>225</v>
+      </c>
+      <c r="F14" s="37">
+        <v>186</v>
+      </c>
+      <c r="G14" s="37">
+        <v>52</v>
+      </c>
+      <c r="H14" s="37">
+        <v>159</v>
+      </c>
+      <c r="I14" s="37">
+        <v>2</v>
+      </c>
+      <c r="J14" s="37">
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -31750,24 +31729,23 @@
       <c r="D15" s="30" t="s">
         <v>658</v>
       </c>
-      <c r="E15" s="30">
-        <v>110</v>
-      </c>
-      <c r="F15" s="30">
-        <v>70</v>
-      </c>
-      <c r="G15" s="30">
-        <v>28</v>
-      </c>
-      <c r="H15" s="30">
-        <v>67</v>
-      </c>
-      <c r="I15" s="30">
+      <c r="E15" s="37">
+        <v>278</v>
+      </c>
+      <c r="F15" s="37">
+        <v>143</v>
+      </c>
+      <c r="G15" s="37">
+        <v>77</v>
+      </c>
+      <c r="H15" s="37">
+        <v>201</v>
+      </c>
+      <c r="I15" s="37">
         <v>0</v>
       </c>
-      <c r="J15" s="30">
-        <f t="shared" si="0"/>
-        <v>275</v>
+      <c r="J15" s="37">
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -31783,24 +31761,23 @@
       <c r="D16" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="E16" s="30">
-        <v>18</v>
-      </c>
-      <c r="F16" s="30">
-        <v>13</v>
-      </c>
-      <c r="G16" s="30">
-        <v>3</v>
-      </c>
-      <c r="H16" s="30">
-        <v>4</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="E16" s="37">
+        <v>43</v>
+      </c>
+      <c r="F16" s="37">
+        <v>19</v>
+      </c>
+      <c r="G16" s="37">
+        <v>7</v>
+      </c>
+      <c r="H16" s="37">
+        <v>23</v>
+      </c>
+      <c r="I16" s="37">
         <v>1</v>
       </c>
-      <c r="J16" s="30">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="J16" s="37">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -31816,24 +31793,23 @@
       <c r="D17" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="E17" s="30">
-        <v>12</v>
-      </c>
-      <c r="F17" s="30">
+      <c r="E17" s="37">
+        <v>31</v>
+      </c>
+      <c r="F17" s="37">
+        <v>5</v>
+      </c>
+      <c r="G17" s="37">
         <v>4</v>
       </c>
-      <c r="G17" s="30">
-        <v>1</v>
-      </c>
-      <c r="H17" s="30">
-        <v>2</v>
-      </c>
-      <c r="I17" s="30">
+      <c r="H17" s="37">
+        <v>9</v>
+      </c>
+      <c r="I17" s="37">
         <v>0</v>
       </c>
-      <c r="J17" s="30">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="J17" s="37">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -31849,24 +31825,23 @@
       <c r="D18" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="E18" s="30">
-        <v>38</v>
-      </c>
-      <c r="F18" s="30">
-        <v>10</v>
-      </c>
-      <c r="G18" s="30">
+      <c r="E18" s="37">
+        <v>103</v>
+      </c>
+      <c r="F18" s="37">
+        <v>15</v>
+      </c>
+      <c r="G18" s="37">
         <v>2</v>
       </c>
-      <c r="H18" s="30">
-        <v>13</v>
-      </c>
-      <c r="I18" s="30">
+      <c r="H18" s="37">
+        <v>25</v>
+      </c>
+      <c r="I18" s="37">
         <v>0</v>
       </c>
-      <c r="J18" s="30">
-        <f t="shared" si="0"/>
-        <v>63</v>
+      <c r="J18" s="37">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -31882,24 +31857,23 @@
       <c r="D19" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="E19" s="30">
-        <v>44</v>
-      </c>
-      <c r="F19" s="30">
-        <v>16</v>
-      </c>
-      <c r="G19" s="30">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30">
-        <v>6</v>
-      </c>
-      <c r="I19" s="30">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30">
-        <f t="shared" si="0"/>
-        <v>66</v>
+      <c r="E19" s="37">
+        <v>141</v>
+      </c>
+      <c r="F19" s="37">
+        <v>29</v>
+      </c>
+      <c r="G19" s="37">
+        <v>1</v>
+      </c>
+      <c r="H19" s="37">
+        <v>28</v>
+      </c>
+      <c r="I19" s="37">
+        <v>2</v>
+      </c>
+      <c r="J19" s="37">
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -31915,24 +31889,23 @@
       <c r="D20" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="E20" s="30">
-        <v>57</v>
-      </c>
-      <c r="F20" s="30">
-        <v>47</v>
-      </c>
-      <c r="G20" s="30">
-        <v>15</v>
-      </c>
-      <c r="H20" s="30">
-        <v>52</v>
-      </c>
-      <c r="I20" s="30">
+      <c r="E20" s="37">
+        <v>165</v>
+      </c>
+      <c r="F20" s="37">
+        <v>88</v>
+      </c>
+      <c r="G20" s="37">
+        <v>49</v>
+      </c>
+      <c r="H20" s="37">
+        <v>152</v>
+      </c>
+      <c r="I20" s="37">
         <v>1</v>
       </c>
-      <c r="J20" s="30">
-        <f t="shared" si="0"/>
-        <v>172</v>
+      <c r="J20" s="37">
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -31948,24 +31921,23 @@
       <c r="D21" s="30" t="s">
         <v>665</v>
       </c>
-      <c r="E21" s="30">
-        <v>70</v>
-      </c>
-      <c r="F21" s="30">
-        <v>31</v>
-      </c>
-      <c r="G21" s="30">
-        <v>7</v>
-      </c>
-      <c r="H21" s="30">
-        <v>35</v>
-      </c>
-      <c r="I21" s="30">
+      <c r="E21" s="37">
+        <v>199</v>
+      </c>
+      <c r="F21" s="37">
+        <v>40</v>
+      </c>
+      <c r="G21" s="37">
+        <v>19</v>
+      </c>
+      <c r="H21" s="37">
+        <v>79</v>
+      </c>
+      <c r="I21" s="37">
         <v>0</v>
       </c>
-      <c r="J21" s="30">
-        <f t="shared" si="0"/>
-        <v>143</v>
+      <c r="J21" s="37">
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -31981,24 +31953,23 @@
       <c r="D22" s="30" t="s">
         <v>666</v>
       </c>
-      <c r="E22" s="30">
-        <v>157</v>
-      </c>
-      <c r="F22" s="30">
-        <v>39</v>
-      </c>
-      <c r="G22" s="30">
-        <v>7</v>
-      </c>
-      <c r="H22" s="30">
-        <v>75</v>
-      </c>
-      <c r="I22" s="30">
-        <v>0</v>
-      </c>
-      <c r="J22" s="30">
-        <f t="shared" si="0"/>
-        <v>278</v>
+      <c r="E22" s="37">
+        <v>416</v>
+      </c>
+      <c r="F22" s="37">
+        <v>72</v>
+      </c>
+      <c r="G22" s="37">
+        <v>17</v>
+      </c>
+      <c r="H22" s="37">
+        <v>224</v>
+      </c>
+      <c r="I22" s="37">
+        <v>1</v>
+      </c>
+      <c r="J22" s="37">
+        <v>730</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -32014,24 +31985,23 @@
       <c r="D23" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="E23" s="30">
-        <v>203</v>
-      </c>
-      <c r="F23" s="30">
-        <v>14</v>
-      </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30">
-        <v>35</v>
-      </c>
-      <c r="I23" s="30">
-        <v>1</v>
-      </c>
-      <c r="J23" s="30">
-        <f t="shared" si="0"/>
-        <v>253</v>
+      <c r="E23" s="37">
+        <v>573</v>
+      </c>
+      <c r="F23" s="37">
+        <v>21</v>
+      </c>
+      <c r="G23" s="37">
+        <v>4</v>
+      </c>
+      <c r="H23" s="37">
+        <v>101</v>
+      </c>
+      <c r="I23" s="37">
+        <v>2</v>
+      </c>
+      <c r="J23" s="37">
+        <v>701</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -32047,24 +32017,23 @@
       <c r="D24" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="E24" s="30">
-        <v>47</v>
-      </c>
-      <c r="F24" s="30">
-        <v>73</v>
-      </c>
-      <c r="G24" s="30">
-        <v>26</v>
-      </c>
-      <c r="H24" s="30">
-        <v>17</v>
-      </c>
-      <c r="I24" s="30">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30">
-        <f t="shared" si="0"/>
-        <v>163</v>
+      <c r="E24" s="37">
+        <v>134</v>
+      </c>
+      <c r="F24" s="37">
+        <v>142</v>
+      </c>
+      <c r="G24" s="37">
+        <v>78</v>
+      </c>
+      <c r="H24" s="37">
+        <v>50</v>
+      </c>
+      <c r="I24" s="37">
+        <v>2</v>
+      </c>
+      <c r="J24" s="37">
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -32080,24 +32049,23 @@
       <c r="D25" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="E25" s="30">
-        <v>49</v>
-      </c>
-      <c r="F25" s="30">
-        <v>11</v>
-      </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30">
-        <v>23</v>
-      </c>
-      <c r="I25" s="30">
+      <c r="E25" s="37">
+        <v>122</v>
+      </c>
+      <c r="F25" s="37">
+        <v>19</v>
+      </c>
+      <c r="G25" s="37">
         <v>2</v>
       </c>
-      <c r="J25" s="30">
-        <f t="shared" si="0"/>
-        <v>85</v>
+      <c r="H25" s="37">
+        <v>78</v>
+      </c>
+      <c r="I25" s="37">
+        <v>3</v>
+      </c>
+      <c r="J25" s="37">
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -32113,24 +32081,23 @@
       <c r="D26" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="E26" s="30">
-        <v>351</v>
-      </c>
-      <c r="F26" s="30">
-        <v>212</v>
-      </c>
-      <c r="G26" s="30">
-        <v>94</v>
-      </c>
-      <c r="H26" s="30">
-        <v>212</v>
-      </c>
-      <c r="I26" s="30">
-        <v>1</v>
-      </c>
-      <c r="J26" s="30">
-        <f t="shared" si="0"/>
-        <v>870</v>
+      <c r="E26" s="37">
+        <v>989</v>
+      </c>
+      <c r="F26" s="37">
+        <v>431</v>
+      </c>
+      <c r="G26" s="37">
+        <v>310</v>
+      </c>
+      <c r="H26" s="37">
+        <v>621</v>
+      </c>
+      <c r="I26" s="37">
+        <v>5</v>
+      </c>
+      <c r="J26" s="37">
+        <v>2356</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -32146,24 +32113,23 @@
       <c r="D27" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="E27" s="30">
-        <v>88</v>
-      </c>
-      <c r="F27" s="30">
-        <v>21</v>
-      </c>
-      <c r="G27" s="30">
-        <v>1</v>
-      </c>
-      <c r="H27" s="30">
-        <v>21</v>
-      </c>
-      <c r="I27" s="30">
+      <c r="E27" s="37">
+        <v>222</v>
+      </c>
+      <c r="F27" s="37">
+        <v>39</v>
+      </c>
+      <c r="G27" s="37">
+        <v>2</v>
+      </c>
+      <c r="H27" s="37">
+        <v>53</v>
+      </c>
+      <c r="I27" s="37">
         <v>0</v>
       </c>
-      <c r="J27" s="30">
-        <f t="shared" si="0"/>
-        <v>131</v>
+      <c r="J27" s="37">
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -32179,24 +32145,23 @@
       <c r="D28" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E28" s="30">
-        <v>17</v>
-      </c>
-      <c r="F28" s="30">
-        <v>16</v>
-      </c>
-      <c r="G28" s="30">
-        <v>8</v>
-      </c>
-      <c r="H28" s="30">
-        <v>8</v>
-      </c>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-      <c r="J28" s="30">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="E28" s="37">
+        <v>57</v>
+      </c>
+      <c r="F28" s="37">
+        <v>22</v>
+      </c>
+      <c r="G28" s="37">
+        <v>14</v>
+      </c>
+      <c r="H28" s="37">
+        <v>25</v>
+      </c>
+      <c r="I28" s="37">
+        <v>2</v>
+      </c>
+      <c r="J28" s="37">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -32212,24 +32177,23 @@
       <c r="D29" s="30" t="s">
         <v>651</v>
       </c>
-      <c r="E29" s="30">
-        <v>129</v>
-      </c>
-      <c r="F29" s="30">
-        <v>44</v>
-      </c>
-      <c r="G29" s="30">
-        <v>13</v>
-      </c>
-      <c r="H29" s="30">
-        <v>52</v>
-      </c>
-      <c r="I29" s="30">
+      <c r="E29" s="37">
+        <v>343</v>
+      </c>
+      <c r="F29" s="37">
+        <v>96</v>
+      </c>
+      <c r="G29" s="37">
+        <v>46</v>
+      </c>
+      <c r="H29" s="37">
+        <v>139</v>
+      </c>
+      <c r="I29" s="37">
         <v>0</v>
       </c>
-      <c r="J29" s="30">
-        <f t="shared" si="0"/>
-        <v>238</v>
+      <c r="J29" s="37">
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -32245,24 +32209,23 @@
       <c r="D30" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="E30" s="30">
-        <v>45</v>
-      </c>
-      <c r="F30" s="30">
-        <v>37</v>
-      </c>
-      <c r="G30" s="30">
-        <v>11</v>
-      </c>
-      <c r="H30" s="30">
+      <c r="E30" s="37">
+        <v>123</v>
+      </c>
+      <c r="F30" s="37">
+        <v>64</v>
+      </c>
+      <c r="G30" s="37">
         <v>35</v>
       </c>
-      <c r="I30" s="30">
+      <c r="H30" s="37">
+        <v>120</v>
+      </c>
+      <c r="I30" s="37">
         <v>1</v>
       </c>
-      <c r="J30" s="30">
-        <f t="shared" si="0"/>
-        <v>129</v>
+      <c r="J30" s="37">
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -32278,24 +32241,23 @@
       <c r="D31" s="30" t="s">
         <v>849</v>
       </c>
-      <c r="E31" s="30">
-        <v>64</v>
-      </c>
-      <c r="F31" s="30">
-        <v>52</v>
-      </c>
-      <c r="G31" s="30">
-        <v>3</v>
-      </c>
-      <c r="H31" s="30">
-        <v>32</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-      <c r="J31" s="30">
-        <f t="shared" si="0"/>
-        <v>151</v>
+      <c r="E31" s="37">
+        <v>170</v>
+      </c>
+      <c r="F31" s="37">
+        <v>81</v>
+      </c>
+      <c r="G31" s="37">
+        <v>11</v>
+      </c>
+      <c r="H31" s="37">
+        <v>88</v>
+      </c>
+      <c r="I31" s="37">
+        <v>1</v>
+      </c>
+      <c r="J31" s="37">
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -32311,24 +32273,23 @@
       <c r="D32" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="E32" s="30">
-        <v>69</v>
-      </c>
-      <c r="F32" s="30">
-        <v>35</v>
-      </c>
-      <c r="G32" s="30">
-        <v>8</v>
-      </c>
-      <c r="H32" s="30">
-        <v>30</v>
-      </c>
-      <c r="I32" s="30">
-        <v>0</v>
-      </c>
-      <c r="J32" s="30">
-        <f t="shared" si="0"/>
-        <v>142</v>
+      <c r="E32" s="37">
+        <v>161</v>
+      </c>
+      <c r="F32" s="37">
+        <v>55</v>
+      </c>
+      <c r="G32" s="37">
+        <v>20</v>
+      </c>
+      <c r="H32" s="37">
+        <v>110</v>
+      </c>
+      <c r="I32" s="37">
+        <v>1</v>
+      </c>
+      <c r="J32" s="37">
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -32344,24 +32305,23 @@
       <c r="D33" s="30" t="s">
         <v>798</v>
       </c>
-      <c r="E33" s="30">
-        <v>162</v>
-      </c>
-      <c r="F33" s="30">
-        <v>75</v>
-      </c>
-      <c r="G33" s="30">
-        <v>26</v>
-      </c>
-      <c r="H33" s="30">
-        <v>82</v>
-      </c>
-      <c r="I33" s="30">
-        <v>0</v>
-      </c>
-      <c r="J33" s="30">
-        <f t="shared" si="0"/>
-        <v>345</v>
+      <c r="E33" s="37">
+        <v>507</v>
+      </c>
+      <c r="F33" s="37">
+        <v>154</v>
+      </c>
+      <c r="G33" s="37">
+        <v>79</v>
+      </c>
+      <c r="H33" s="37">
+        <v>256</v>
+      </c>
+      <c r="I33" s="37">
+        <v>1</v>
+      </c>
+      <c r="J33" s="37">
+        <v>997</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -32377,24 +32337,23 @@
       <c r="D34" s="30" t="s">
         <v>676</v>
       </c>
-      <c r="E34" s="30">
-        <v>129</v>
-      </c>
-      <c r="F34" s="30">
-        <v>37</v>
-      </c>
-      <c r="G34" s="30">
-        <v>8</v>
-      </c>
-      <c r="H34" s="30">
-        <v>38</v>
-      </c>
-      <c r="I34" s="30">
-        <v>0</v>
-      </c>
-      <c r="J34" s="30">
-        <f t="shared" si="0"/>
-        <v>212</v>
+      <c r="E34" s="37">
+        <v>269</v>
+      </c>
+      <c r="F34" s="37">
+        <v>59</v>
+      </c>
+      <c r="G34" s="37">
+        <v>33</v>
+      </c>
+      <c r="H34" s="37">
+        <v>107</v>
+      </c>
+      <c r="I34" s="37">
+        <v>1</v>
+      </c>
+      <c r="J34" s="37">
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -32410,24 +32369,23 @@
       <c r="D35" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="E35" s="30">
-        <v>69</v>
-      </c>
-      <c r="F35" s="30">
-        <v>33</v>
-      </c>
-      <c r="G35" s="30">
-        <v>17</v>
-      </c>
-      <c r="H35" s="30">
-        <v>49</v>
-      </c>
-      <c r="I35" s="30">
+      <c r="E35" s="37">
+        <v>169</v>
+      </c>
+      <c r="F35" s="37">
+        <v>76</v>
+      </c>
+      <c r="G35" s="37">
+        <v>46</v>
+      </c>
+      <c r="H35" s="37">
+        <v>165</v>
+      </c>
+      <c r="I35" s="37">
         <v>0</v>
       </c>
-      <c r="J35" s="30">
-        <f t="shared" si="0"/>
-        <v>168</v>
+      <c r="J35" s="37">
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -32443,24 +32401,23 @@
       <c r="D36" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="37">
+        <v>67</v>
+      </c>
+      <c r="F36" s="37">
         <v>23</v>
       </c>
-      <c r="F36" s="30">
+      <c r="G36" s="37">
         <v>12</v>
       </c>
-      <c r="G36" s="30">
-        <v>5</v>
-      </c>
-      <c r="H36" s="30">
-        <v>15</v>
-      </c>
-      <c r="I36" s="30">
+      <c r="H36" s="37">
+        <v>57</v>
+      </c>
+      <c r="I36" s="37">
         <v>0</v>
       </c>
-      <c r="J36" s="30">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="J36" s="37">
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -32476,24 +32433,23 @@
       <c r="D37" s="30" t="s">
         <v>698</v>
       </c>
-      <c r="E37" s="30">
-        <v>37</v>
-      </c>
-      <c r="F37" s="30">
-        <v>20</v>
-      </c>
-      <c r="G37" s="30">
-        <v>4</v>
-      </c>
-      <c r="H37" s="30">
-        <v>32</v>
-      </c>
-      <c r="I37" s="30">
+      <c r="E37" s="37">
+        <v>116</v>
+      </c>
+      <c r="F37" s="37">
+        <v>36</v>
+      </c>
+      <c r="G37" s="37">
+        <v>7</v>
+      </c>
+      <c r="H37" s="37">
+        <v>73</v>
+      </c>
+      <c r="I37" s="37">
         <v>0</v>
       </c>
-      <c r="J37" s="30">
-        <f t="shared" si="0"/>
-        <v>93</v>
+      <c r="J37" s="37">
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -32509,24 +32465,23 @@
       <c r="D38" s="30" t="s">
         <v>699</v>
       </c>
-      <c r="E38" s="30">
-        <v>28</v>
-      </c>
-      <c r="F38" s="30">
-        <v>12</v>
-      </c>
-      <c r="G38" s="30">
+      <c r="E38" s="37">
+        <v>57</v>
+      </c>
+      <c r="F38" s="37">
+        <v>20</v>
+      </c>
+      <c r="G38" s="37">
+        <v>3</v>
+      </c>
+      <c r="H38" s="37">
+        <v>41</v>
+      </c>
+      <c r="I38" s="37">
         <v>0</v>
       </c>
-      <c r="H38" s="30">
-        <v>10</v>
-      </c>
-      <c r="I38" s="30">
-        <v>0</v>
-      </c>
-      <c r="J38" s="30">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="J38" s="37">
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -32542,24 +32497,23 @@
       <c r="D39" s="30" t="s">
         <v>700</v>
       </c>
-      <c r="E39" s="30">
-        <v>63</v>
-      </c>
-      <c r="F39" s="30">
-        <v>17</v>
-      </c>
-      <c r="G39" s="30">
-        <v>4</v>
-      </c>
-      <c r="H39" s="30">
-        <v>10</v>
-      </c>
-      <c r="I39" s="30">
-        <v>0</v>
-      </c>
-      <c r="J39" s="30">
-        <f t="shared" si="0"/>
-        <v>94</v>
+      <c r="E39" s="37">
+        <v>156</v>
+      </c>
+      <c r="F39" s="37">
+        <v>31</v>
+      </c>
+      <c r="G39" s="37">
+        <v>11</v>
+      </c>
+      <c r="H39" s="37">
+        <v>39</v>
+      </c>
+      <c r="I39" s="37">
+        <v>2</v>
+      </c>
+      <c r="J39" s="37">
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -32575,24 +32529,23 @@
       <c r="D40" s="30" t="s">
         <v>701</v>
       </c>
-      <c r="E40" s="30">
-        <v>146</v>
-      </c>
-      <c r="F40" s="30">
-        <v>79</v>
-      </c>
-      <c r="G40" s="30">
-        <v>3</v>
-      </c>
-      <c r="H40" s="30">
-        <v>135</v>
-      </c>
-      <c r="I40" s="30">
-        <v>0</v>
-      </c>
-      <c r="J40" s="30">
-        <f t="shared" si="0"/>
-        <v>363</v>
+      <c r="E40" s="37">
+        <v>398</v>
+      </c>
+      <c r="F40" s="37">
+        <v>138</v>
+      </c>
+      <c r="G40" s="37">
+        <v>14</v>
+      </c>
+      <c r="H40" s="37">
+        <v>386</v>
+      </c>
+      <c r="I40" s="37">
+        <v>5</v>
+      </c>
+      <c r="J40" s="37">
+        <v>941</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -32608,24 +32561,23 @@
       <c r="D41" s="30" t="s">
         <v>702</v>
       </c>
-      <c r="E41" s="30">
-        <v>49</v>
-      </c>
-      <c r="F41" s="30">
-        <v>40</v>
-      </c>
-      <c r="G41" s="30">
-        <v>14</v>
-      </c>
-      <c r="H41" s="30">
-        <v>21</v>
-      </c>
-      <c r="I41" s="30">
+      <c r="E41" s="37">
+        <v>139</v>
+      </c>
+      <c r="F41" s="37">
+        <v>85</v>
+      </c>
+      <c r="G41" s="37">
+        <v>47</v>
+      </c>
+      <c r="H41" s="37">
+        <v>74</v>
+      </c>
+      <c r="I41" s="37">
         <v>0</v>
       </c>
-      <c r="J41" s="30">
-        <f t="shared" si="0"/>
-        <v>124</v>
+      <c r="J41" s="37">
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -32641,24 +32593,23 @@
       <c r="D42" s="30" t="s">
         <v>703</v>
       </c>
-      <c r="E42" s="30">
-        <v>45</v>
-      </c>
-      <c r="F42" s="30">
-        <v>17</v>
-      </c>
-      <c r="G42" s="30">
-        <v>7</v>
-      </c>
-      <c r="H42" s="30">
-        <v>38</v>
-      </c>
-      <c r="I42" s="30">
+      <c r="E42" s="37">
+        <v>119</v>
+      </c>
+      <c r="F42" s="37">
+        <v>32</v>
+      </c>
+      <c r="G42" s="37">
+        <v>20</v>
+      </c>
+      <c r="H42" s="37">
+        <v>84</v>
+      </c>
+      <c r="I42" s="37">
         <v>1</v>
       </c>
-      <c r="J42" s="30">
-        <f t="shared" si="0"/>
-        <v>108</v>
+      <c r="J42" s="37">
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -32674,24 +32625,23 @@
       <c r="D43" s="30" t="s">
         <v>704</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="37">
+        <v>223</v>
+      </c>
+      <c r="F43" s="37">
+        <v>94</v>
+      </c>
+      <c r="G43" s="37">
+        <v>22</v>
+      </c>
+      <c r="H43" s="37">
         <v>67</v>
       </c>
-      <c r="F43" s="30">
-        <v>58</v>
-      </c>
-      <c r="G43" s="30">
-        <v>9</v>
-      </c>
-      <c r="H43" s="30">
-        <v>25</v>
-      </c>
-      <c r="I43" s="30">
-        <v>0</v>
-      </c>
-      <c r="J43" s="30">
-        <f t="shared" si="0"/>
-        <v>159</v>
+      <c r="I43" s="37">
+        <v>1</v>
+      </c>
+      <c r="J43" s="37">
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -32707,24 +32657,23 @@
       <c r="D44" s="30" t="s">
         <v>706</v>
       </c>
-      <c r="E44" s="30">
-        <v>32</v>
-      </c>
-      <c r="F44" s="30">
-        <v>12</v>
-      </c>
-      <c r="G44" s="30">
+      <c r="E44" s="37">
+        <v>85</v>
+      </c>
+      <c r="F44" s="37">
+        <v>28</v>
+      </c>
+      <c r="G44" s="37">
+        <v>10</v>
+      </c>
+      <c r="H44" s="37">
+        <v>75</v>
+      </c>
+      <c r="I44" s="37">
         <v>0</v>
       </c>
-      <c r="H44" s="30">
-        <v>34</v>
-      </c>
-      <c r="I44" s="30">
-        <v>0</v>
-      </c>
-      <c r="J44" s="30">
-        <f t="shared" si="0"/>
-        <v>78</v>
+      <c r="J44" s="37">
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -32740,24 +32689,23 @@
       <c r="D45" s="30" t="s">
         <v>707</v>
       </c>
-      <c r="E45" s="30">
-        <v>13</v>
-      </c>
-      <c r="F45" s="30">
-        <v>4</v>
-      </c>
-      <c r="G45" s="30">
-        <v>2</v>
-      </c>
-      <c r="H45" s="30">
-        <v>10</v>
-      </c>
-      <c r="I45" s="30">
+      <c r="E45" s="37">
+        <v>47</v>
+      </c>
+      <c r="F45" s="37">
+        <v>15</v>
+      </c>
+      <c r="G45" s="37">
+        <v>3</v>
+      </c>
+      <c r="H45" s="37">
+        <v>27</v>
+      </c>
+      <c r="I45" s="37">
         <v>0</v>
       </c>
-      <c r="J45" s="30">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="J45" s="37">
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -32773,24 +32721,23 @@
       <c r="D46" s="30" t="s">
         <v>708</v>
       </c>
-      <c r="E46" s="30">
-        <v>52</v>
-      </c>
-      <c r="F46" s="30">
-        <v>14</v>
-      </c>
-      <c r="G46" s="30">
-        <v>3</v>
-      </c>
-      <c r="H46" s="30">
-        <v>27</v>
-      </c>
-      <c r="I46" s="30">
-        <v>0</v>
-      </c>
-      <c r="J46" s="30">
-        <f t="shared" si="0"/>
-        <v>96</v>
+      <c r="E46" s="37">
+        <v>102</v>
+      </c>
+      <c r="F46" s="37">
+        <v>26</v>
+      </c>
+      <c r="G46" s="37">
+        <v>13</v>
+      </c>
+      <c r="H46" s="37">
+        <v>72</v>
+      </c>
+      <c r="I46" s="37">
+        <v>2</v>
+      </c>
+      <c r="J46" s="37">
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -32806,24 +32753,23 @@
       <c r="D47" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="E47" s="30">
-        <v>27</v>
-      </c>
-      <c r="F47" s="30">
-        <v>23</v>
-      </c>
-      <c r="G47" s="30">
+      <c r="E47" s="37">
+        <v>108</v>
+      </c>
+      <c r="F47" s="37">
+        <v>34</v>
+      </c>
+      <c r="G47" s="37">
+        <v>2</v>
+      </c>
+      <c r="H47" s="37">
+        <v>32</v>
+      </c>
+      <c r="I47" s="37">
         <v>0</v>
       </c>
-      <c r="H47" s="30">
-        <v>12</v>
-      </c>
-      <c r="I47" s="30">
-        <v>0</v>
-      </c>
-      <c r="J47" s="30">
-        <f t="shared" si="0"/>
-        <v>62</v>
+      <c r="J47" s="37">
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -32839,24 +32785,23 @@
       <c r="D48" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="E48" s="30">
-        <v>39</v>
-      </c>
-      <c r="F48" s="30">
-        <v>24</v>
-      </c>
-      <c r="G48" s="30">
-        <v>2</v>
-      </c>
-      <c r="H48" s="30">
-        <v>15</v>
-      </c>
-      <c r="I48" s="30">
-        <v>2</v>
-      </c>
-      <c r="J48" s="30">
-        <f t="shared" si="0"/>
-        <v>82</v>
+      <c r="E48" s="37">
+        <v>95</v>
+      </c>
+      <c r="F48" s="37">
+        <v>37</v>
+      </c>
+      <c r="G48" s="37">
+        <v>12</v>
+      </c>
+      <c r="H48" s="37">
+        <v>36</v>
+      </c>
+      <c r="I48" s="37">
+        <v>5</v>
+      </c>
+      <c r="J48" s="37">
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -32872,24 +32817,23 @@
       <c r="D49" s="30" t="s">
         <v>681</v>
       </c>
-      <c r="E49" s="30">
-        <v>200</v>
-      </c>
-      <c r="F49" s="30">
-        <v>205</v>
-      </c>
-      <c r="G49" s="30">
-        <v>37</v>
-      </c>
-      <c r="H49" s="30">
-        <v>134</v>
-      </c>
-      <c r="I49" s="30">
-        <v>1</v>
-      </c>
-      <c r="J49" s="30">
-        <f t="shared" si="0"/>
-        <v>577</v>
+      <c r="E49" s="37">
+        <v>556</v>
+      </c>
+      <c r="F49" s="37">
+        <v>366</v>
+      </c>
+      <c r="G49" s="37">
+        <v>92</v>
+      </c>
+      <c r="H49" s="37">
+        <v>404</v>
+      </c>
+      <c r="I49" s="37">
+        <v>3</v>
+      </c>
+      <c r="J49" s="37">
+        <v>1421</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -32905,24 +32849,23 @@
       <c r="D50" s="30" t="s">
         <v>682</v>
       </c>
-      <c r="E50" s="30">
-        <v>769</v>
-      </c>
-      <c r="F50" s="30">
-        <v>389</v>
-      </c>
-      <c r="G50" s="30">
-        <v>175</v>
-      </c>
-      <c r="H50" s="30">
-        <v>559</v>
-      </c>
-      <c r="I50" s="30">
-        <v>1</v>
-      </c>
-      <c r="J50" s="30">
-        <f t="shared" si="0"/>
-        <v>1893</v>
+      <c r="E50" s="37">
+        <v>2024</v>
+      </c>
+      <c r="F50" s="37">
+        <v>970</v>
+      </c>
+      <c r="G50" s="37">
+        <v>560</v>
+      </c>
+      <c r="H50" s="37">
+        <v>1964</v>
+      </c>
+      <c r="I50" s="37">
+        <v>2</v>
+      </c>
+      <c r="J50" s="37">
+        <v>5520</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -32938,24 +32881,23 @@
       <c r="D51" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="E51" s="30">
-        <v>149</v>
-      </c>
-      <c r="F51" s="30">
-        <v>100</v>
-      </c>
-      <c r="G51" s="30">
-        <v>32</v>
-      </c>
-      <c r="H51" s="30">
-        <v>59</v>
-      </c>
-      <c r="I51" s="30">
-        <v>1</v>
-      </c>
-      <c r="J51" s="30">
-        <f t="shared" si="0"/>
-        <v>341</v>
+      <c r="E51" s="37">
+        <v>369</v>
+      </c>
+      <c r="F51" s="37">
+        <v>184</v>
+      </c>
+      <c r="G51" s="37">
+        <v>113</v>
+      </c>
+      <c r="H51" s="37">
+        <v>156</v>
+      </c>
+      <c r="I51" s="37">
+        <v>7</v>
+      </c>
+      <c r="J51" s="37">
+        <v>829</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -32971,24 +32913,23 @@
       <c r="D52" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="37">
+        <v>31</v>
+      </c>
+      <c r="F52" s="37">
+        <v>3</v>
+      </c>
+      <c r="G52" s="37">
+        <v>1</v>
+      </c>
+      <c r="H52" s="37">
         <v>12</v>
       </c>
-      <c r="F52" s="30">
-        <v>0</v>
-      </c>
-      <c r="G52" s="30">
-        <v>0</v>
-      </c>
-      <c r="H52" s="30">
+      <c r="I52" s="37">
         <v>1</v>
       </c>
-      <c r="I52" s="30">
-        <v>0</v>
-      </c>
-      <c r="J52" s="30">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="J52" s="37">
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -33004,24 +32945,23 @@
       <c r="D53" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="E53" s="30">
-        <v>23</v>
-      </c>
-      <c r="F53" s="30">
-        <v>12</v>
-      </c>
-      <c r="G53" s="30">
-        <v>1</v>
-      </c>
-      <c r="H53" s="30">
-        <v>10</v>
-      </c>
-      <c r="I53" s="30">
-        <v>1</v>
-      </c>
-      <c r="J53" s="30">
-        <f t="shared" si="0"/>
-        <v>47</v>
+      <c r="E53" s="37">
+        <v>62</v>
+      </c>
+      <c r="F53" s="37">
+        <v>21</v>
+      </c>
+      <c r="G53" s="37">
+        <v>3</v>
+      </c>
+      <c r="H53" s="37">
+        <v>28</v>
+      </c>
+      <c r="I53" s="37">
+        <v>4</v>
+      </c>
+      <c r="J53" s="37">
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -33037,24 +32977,23 @@
       <c r="D54" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="E54" s="30">
-        <v>95</v>
-      </c>
-      <c r="F54" s="30">
-        <v>21</v>
-      </c>
-      <c r="G54" s="30">
-        <v>6</v>
-      </c>
-      <c r="H54" s="30">
-        <v>33</v>
-      </c>
-      <c r="I54" s="30">
+      <c r="E54" s="37">
+        <v>228</v>
+      </c>
+      <c r="F54" s="37">
+        <v>34</v>
+      </c>
+      <c r="G54" s="37">
+        <v>16</v>
+      </c>
+      <c r="H54" s="37">
+        <v>83</v>
+      </c>
+      <c r="I54" s="37">
         <v>0</v>
       </c>
-      <c r="J54" s="30">
-        <f t="shared" si="0"/>
-        <v>155</v>
+      <c r="J54" s="37">
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -33070,24 +33009,23 @@
       <c r="D55" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="E55" s="30">
-        <v>644</v>
-      </c>
-      <c r="F55" s="30">
-        <v>248</v>
-      </c>
-      <c r="G55" s="30">
-        <v>67</v>
-      </c>
-      <c r="H55" s="30">
-        <v>601</v>
-      </c>
-      <c r="I55" s="30">
-        <v>4</v>
-      </c>
-      <c r="J55" s="30">
-        <f t="shared" si="0"/>
-        <v>1564</v>
+      <c r="E55" s="37">
+        <v>1846</v>
+      </c>
+      <c r="F55" s="37">
+        <v>541</v>
+      </c>
+      <c r="G55" s="37">
+        <v>269</v>
+      </c>
+      <c r="H55" s="37">
+        <v>1768</v>
+      </c>
+      <c r="I55" s="37">
+        <v>9</v>
+      </c>
+      <c r="J55" s="37">
+        <v>4433</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -33103,24 +33041,23 @@
       <c r="D56" s="30" t="s">
         <v>688</v>
       </c>
-      <c r="E56" s="30">
-        <v>120</v>
-      </c>
-      <c r="F56" s="30">
-        <v>70</v>
-      </c>
-      <c r="G56" s="30">
-        <v>24</v>
-      </c>
-      <c r="H56" s="30">
-        <v>194</v>
-      </c>
-      <c r="I56" s="30">
-        <v>0</v>
-      </c>
-      <c r="J56" s="30">
-        <f t="shared" si="0"/>
-        <v>408</v>
+      <c r="E56" s="37">
+        <v>314</v>
+      </c>
+      <c r="F56" s="37">
+        <v>107</v>
+      </c>
+      <c r="G56" s="37">
+        <v>63</v>
+      </c>
+      <c r="H56" s="37">
+        <v>652</v>
+      </c>
+      <c r="I56" s="37">
+        <v>4</v>
+      </c>
+      <c r="J56" s="37">
+        <v>1140</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -33136,24 +33073,23 @@
       <c r="D57" s="30" t="s">
         <v>689</v>
       </c>
-      <c r="E57" s="30">
-        <v>37</v>
-      </c>
-      <c r="F57" s="30">
-        <v>14</v>
-      </c>
-      <c r="G57" s="30">
-        <v>7</v>
-      </c>
-      <c r="H57" s="30">
-        <v>30</v>
-      </c>
-      <c r="I57" s="30">
-        <v>1</v>
-      </c>
-      <c r="J57" s="30">
-        <f t="shared" si="0"/>
-        <v>89</v>
+      <c r="E57" s="37">
+        <v>91</v>
+      </c>
+      <c r="F57" s="37">
+        <v>28</v>
+      </c>
+      <c r="G57" s="37">
+        <v>9</v>
+      </c>
+      <c r="H57" s="37">
+        <v>78</v>
+      </c>
+      <c r="I57" s="37">
+        <v>2</v>
+      </c>
+      <c r="J57" s="37">
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -33169,24 +33105,23 @@
       <c r="D58" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="E58" s="30">
-        <v>331</v>
-      </c>
-      <c r="F58" s="30">
-        <v>81</v>
-      </c>
-      <c r="G58" s="30">
-        <v>11</v>
-      </c>
-      <c r="H58" s="30">
-        <v>91</v>
-      </c>
-      <c r="I58" s="30">
+      <c r="E58" s="37">
+        <v>868</v>
+      </c>
+      <c r="F58" s="37">
+        <v>142</v>
+      </c>
+      <c r="G58" s="37">
+        <v>28</v>
+      </c>
+      <c r="H58" s="37">
+        <v>271</v>
+      </c>
+      <c r="I58" s="37">
         <v>1</v>
       </c>
-      <c r="J58" s="30">
-        <f t="shared" si="0"/>
-        <v>515</v>
+      <c r="J58" s="37">
+        <v>1310</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -33202,24 +33137,23 @@
       <c r="D59" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="E59" s="30">
-        <v>247</v>
-      </c>
-      <c r="F59" s="30">
-        <v>242</v>
-      </c>
-      <c r="G59" s="30">
-        <v>37</v>
-      </c>
-      <c r="H59" s="30">
-        <v>113</v>
-      </c>
-      <c r="I59" s="30">
+      <c r="E59" s="37">
+        <v>740</v>
+      </c>
+      <c r="F59" s="37">
+        <v>322</v>
+      </c>
+      <c r="G59" s="37">
+        <v>108</v>
+      </c>
+      <c r="H59" s="37">
+        <v>398</v>
+      </c>
+      <c r="I59" s="37">
         <v>0</v>
       </c>
-      <c r="J59" s="30">
-        <f t="shared" si="0"/>
-        <v>639</v>
+      <c r="J59" s="37">
+        <v>1568</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -33235,24 +33169,23 @@
       <c r="D60" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="E60" s="30">
-        <v>79</v>
-      </c>
-      <c r="F60" s="30">
-        <v>36</v>
-      </c>
-      <c r="G60" s="30">
-        <v>8</v>
-      </c>
-      <c r="H60" s="30">
-        <v>35</v>
-      </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-      <c r="J60" s="30">
-        <f t="shared" si="0"/>
-        <v>158</v>
+      <c r="E60" s="37">
+        <v>179</v>
+      </c>
+      <c r="F60" s="37">
+        <v>67</v>
+      </c>
+      <c r="G60" s="37">
+        <v>34</v>
+      </c>
+      <c r="H60" s="37">
+        <v>101</v>
+      </c>
+      <c r="I60" s="37">
+        <v>5</v>
+      </c>
+      <c r="J60" s="37">
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -33268,24 +33201,23 @@
       <c r="D61" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="E61" s="30">
-        <v>64</v>
-      </c>
-      <c r="F61" s="30">
-        <v>30</v>
-      </c>
-      <c r="G61" s="30">
-        <v>4</v>
-      </c>
-      <c r="H61" s="30">
-        <v>34</v>
-      </c>
-      <c r="I61" s="30">
-        <v>1</v>
-      </c>
-      <c r="J61" s="30">
-        <f t="shared" si="0"/>
-        <v>133</v>
+      <c r="E61" s="37">
+        <v>163</v>
+      </c>
+      <c r="F61" s="37">
+        <v>43</v>
+      </c>
+      <c r="G61" s="37">
+        <v>7</v>
+      </c>
+      <c r="H61" s="37">
+        <v>94</v>
+      </c>
+      <c r="I61" s="37">
+        <v>2</v>
+      </c>
+      <c r="J61" s="37">
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -33301,24 +33233,23 @@
       <c r="D62" s="30" t="s">
         <v>694</v>
       </c>
-      <c r="E62" s="30">
-        <v>81</v>
-      </c>
-      <c r="F62" s="30">
-        <v>36</v>
-      </c>
-      <c r="G62" s="30">
-        <v>12</v>
-      </c>
-      <c r="H62" s="30">
-        <v>37</v>
-      </c>
-      <c r="I62" s="30">
+      <c r="E62" s="37">
+        <v>271</v>
+      </c>
+      <c r="F62" s="37">
+        <v>67</v>
+      </c>
+      <c r="G62" s="37">
+        <v>32</v>
+      </c>
+      <c r="H62" s="37">
+        <v>117</v>
+      </c>
+      <c r="I62" s="37">
         <v>0</v>
       </c>
-      <c r="J62" s="30">
-        <f t="shared" si="0"/>
-        <v>166</v>
+      <c r="J62" s="37">
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -33334,24 +33265,23 @@
       <c r="D63" s="30" t="s">
         <v>695</v>
       </c>
-      <c r="E63" s="30">
-        <v>43</v>
-      </c>
-      <c r="F63" s="30">
-        <v>24</v>
-      </c>
-      <c r="G63" s="30">
-        <v>5</v>
-      </c>
-      <c r="H63" s="30">
-        <v>13</v>
-      </c>
-      <c r="I63" s="30">
-        <v>0</v>
-      </c>
-      <c r="J63" s="30">
-        <f t="shared" si="0"/>
-        <v>85</v>
+      <c r="E63" s="37">
+        <v>131</v>
+      </c>
+      <c r="F63" s="37">
+        <v>46</v>
+      </c>
+      <c r="G63" s="37">
+        <v>20</v>
+      </c>
+      <c r="H63" s="37">
+        <v>39</v>
+      </c>
+      <c r="I63" s="37">
+        <v>1</v>
+      </c>
+      <c r="J63" s="37">
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -33367,24 +33297,23 @@
       <c r="D64" s="30" t="s">
         <v>696</v>
       </c>
-      <c r="E64" s="30">
-        <v>92</v>
-      </c>
-      <c r="F64" s="30">
-        <v>45</v>
-      </c>
-      <c r="G64" s="30">
-        <v>14</v>
-      </c>
-      <c r="H64" s="30">
-        <v>45</v>
-      </c>
-      <c r="I64" s="30">
+      <c r="E64" s="37">
+        <v>236</v>
+      </c>
+      <c r="F64" s="37">
+        <v>90</v>
+      </c>
+      <c r="G64" s="37">
+        <v>41</v>
+      </c>
+      <c r="H64" s="37">
+        <v>150</v>
+      </c>
+      <c r="I64" s="37">
         <v>0</v>
       </c>
-      <c r="J64" s="30">
-        <f t="shared" si="0"/>
-        <v>196</v>
+      <c r="J64" s="37">
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -33400,24 +33329,23 @@
       <c r="D65" s="30" t="s">
         <v>697</v>
       </c>
-      <c r="E65" s="30">
-        <v>67</v>
-      </c>
-      <c r="F65" s="30">
-        <v>43</v>
-      </c>
-      <c r="G65" s="30">
-        <v>15</v>
-      </c>
-      <c r="H65" s="30">
-        <v>32</v>
-      </c>
-      <c r="I65" s="30">
+      <c r="E65" s="37">
+        <v>185</v>
+      </c>
+      <c r="F65" s="37">
+        <v>78</v>
+      </c>
+      <c r="G65" s="37">
+        <v>33</v>
+      </c>
+      <c r="H65" s="37">
+        <v>93</v>
+      </c>
+      <c r="I65" s="37">
         <v>0</v>
       </c>
-      <c r="J65" s="30">
-        <f t="shared" si="0"/>
-        <v>157</v>
+      <c r="J65" s="37">
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -33433,24 +33361,23 @@
       <c r="D66" s="30" t="s">
         <v>846</v>
       </c>
-      <c r="E66" s="30">
-        <v>128</v>
-      </c>
-      <c r="F66" s="30">
-        <v>127</v>
-      </c>
-      <c r="G66" s="30">
-        <v>10</v>
-      </c>
-      <c r="H66" s="30">
-        <v>94</v>
-      </c>
-      <c r="I66" s="30">
-        <v>0</v>
-      </c>
-      <c r="J66" s="30">
-        <f t="shared" si="0"/>
-        <v>359</v>
+      <c r="E66" s="37">
+        <v>364</v>
+      </c>
+      <c r="F66" s="37">
+        <v>296</v>
+      </c>
+      <c r="G66" s="37">
+        <v>51</v>
+      </c>
+      <c r="H66" s="37">
+        <v>282</v>
+      </c>
+      <c r="I66" s="37">
+        <v>1</v>
+      </c>
+      <c r="J66" s="37">
+        <v>994</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -33466,24 +33393,23 @@
       <c r="D67" s="30" t="s">
         <v>709</v>
       </c>
-      <c r="E67" s="30">
-        <v>101</v>
-      </c>
-      <c r="F67" s="30">
-        <v>49</v>
-      </c>
-      <c r="G67" s="30">
-        <v>4</v>
-      </c>
-      <c r="H67" s="30">
-        <v>71</v>
-      </c>
-      <c r="I67" s="30">
+      <c r="E67" s="37">
+        <v>282</v>
+      </c>
+      <c r="F67" s="37">
+        <v>89</v>
+      </c>
+      <c r="G67" s="37">
+        <v>11</v>
+      </c>
+      <c r="H67" s="37">
+        <v>200</v>
+      </c>
+      <c r="I67" s="37">
         <v>1</v>
       </c>
-      <c r="J67" s="30">
-        <f t="shared" ref="J67:J130" si="1">SUM(E67:I67)</f>
-        <v>226</v>
+      <c r="J67" s="37">
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -33499,24 +33425,23 @@
       <c r="D68" s="30" t="s">
         <v>710</v>
       </c>
-      <c r="E68" s="30">
-        <v>108</v>
-      </c>
-      <c r="F68" s="30">
-        <v>57</v>
-      </c>
-      <c r="G68" s="30">
-        <v>1</v>
-      </c>
-      <c r="H68" s="30">
-        <v>16</v>
-      </c>
-      <c r="I68" s="30">
+      <c r="E68" s="37">
+        <v>263</v>
+      </c>
+      <c r="F68" s="37">
+        <v>92</v>
+      </c>
+      <c r="G68" s="37">
+        <v>4</v>
+      </c>
+      <c r="H68" s="37">
+        <v>59</v>
+      </c>
+      <c r="I68" s="37">
         <v>0</v>
       </c>
-      <c r="J68" s="30">
-        <f t="shared" si="1"/>
-        <v>182</v>
+      <c r="J68" s="37">
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -33532,24 +33457,23 @@
       <c r="D69" s="30" t="s">
         <v>711</v>
       </c>
-      <c r="E69" s="30">
-        <v>131</v>
-      </c>
-      <c r="F69" s="30">
-        <v>130</v>
-      </c>
-      <c r="G69" s="30">
-        <v>30</v>
-      </c>
-      <c r="H69" s="30">
-        <v>56</v>
-      </c>
-      <c r="I69" s="30">
+      <c r="E69" s="37">
+        <v>361</v>
+      </c>
+      <c r="F69" s="37">
+        <v>217</v>
+      </c>
+      <c r="G69" s="37">
+        <v>93</v>
+      </c>
+      <c r="H69" s="37">
+        <v>180</v>
+      </c>
+      <c r="I69" s="37">
         <v>0</v>
       </c>
-      <c r="J69" s="30">
-        <f t="shared" si="1"/>
-        <v>347</v>
+      <c r="J69" s="37">
+        <v>851</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -33565,24 +33489,23 @@
       <c r="D70" s="30" t="s">
         <v>712</v>
       </c>
-      <c r="E70" s="30">
-        <v>75</v>
-      </c>
-      <c r="F70" s="30">
-        <v>28</v>
-      </c>
-      <c r="G70" s="30">
-        <v>17</v>
-      </c>
-      <c r="H70" s="30">
-        <v>56</v>
-      </c>
-      <c r="I70" s="30">
+      <c r="E70" s="37">
+        <v>189</v>
+      </c>
+      <c r="F70" s="37">
+        <v>64</v>
+      </c>
+      <c r="G70" s="37">
+        <v>52</v>
+      </c>
+      <c r="H70" s="37">
+        <v>176</v>
+      </c>
+      <c r="I70" s="37">
         <v>0</v>
       </c>
-      <c r="J70" s="30">
-        <f t="shared" si="1"/>
-        <v>176</v>
+      <c r="J70" s="37">
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -33598,24 +33521,23 @@
       <c r="D71" s="30" t="s">
         <v>713</v>
       </c>
-      <c r="E71" s="30">
-        <v>74</v>
-      </c>
-      <c r="F71" s="30">
-        <v>28</v>
-      </c>
-      <c r="G71" s="30">
-        <v>7</v>
-      </c>
-      <c r="H71" s="30">
+      <c r="E71" s="37">
+        <v>183</v>
+      </c>
+      <c r="F71" s="37">
+        <v>76</v>
+      </c>
+      <c r="G71" s="37">
         <v>27</v>
       </c>
-      <c r="I71" s="30">
+      <c r="H71" s="37">
+        <v>94</v>
+      </c>
+      <c r="I71" s="37">
         <v>0</v>
       </c>
-      <c r="J71" s="30">
-        <f t="shared" si="1"/>
-        <v>136</v>
+      <c r="J71" s="37">
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -33631,24 +33553,23 @@
       <c r="D72" s="30" t="s">
         <v>714</v>
       </c>
-      <c r="E72" s="30">
-        <v>244</v>
-      </c>
-      <c r="F72" s="30">
-        <v>128</v>
-      </c>
-      <c r="G72" s="30">
-        <v>7</v>
-      </c>
-      <c r="H72" s="30">
-        <v>94</v>
-      </c>
-      <c r="I72" s="30">
+      <c r="E72" s="37">
+        <v>675</v>
+      </c>
+      <c r="F72" s="37">
+        <v>207</v>
+      </c>
+      <c r="G72" s="37">
+        <v>36</v>
+      </c>
+      <c r="H72" s="37">
+        <v>285</v>
+      </c>
+      <c r="I72" s="37">
         <v>0</v>
       </c>
-      <c r="J72" s="30">
-        <f t="shared" si="1"/>
-        <v>473</v>
+      <c r="J72" s="37">
+        <v>1203</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -33664,24 +33585,23 @@
       <c r="D73" s="30" t="s">
         <v>715</v>
       </c>
-      <c r="E73" s="30">
-        <v>55</v>
-      </c>
-      <c r="F73" s="30">
-        <v>7</v>
-      </c>
-      <c r="G73" s="30">
-        <v>6</v>
-      </c>
-      <c r="H73" s="30">
-        <v>39</v>
-      </c>
-      <c r="I73" s="30">
-        <v>0</v>
-      </c>
-      <c r="J73" s="30">
-        <f t="shared" si="1"/>
-        <v>107</v>
+      <c r="E73" s="37">
+        <v>181</v>
+      </c>
+      <c r="F73" s="37">
+        <v>14</v>
+      </c>
+      <c r="G73" s="37">
+        <v>23</v>
+      </c>
+      <c r="H73" s="37">
+        <v>98</v>
+      </c>
+      <c r="I73" s="37">
+        <v>2</v>
+      </c>
+      <c r="J73" s="37">
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -33697,24 +33617,23 @@
       <c r="D74" s="30" t="s">
         <v>716</v>
       </c>
-      <c r="E74" s="30">
-        <v>137</v>
-      </c>
-      <c r="F74" s="30">
-        <v>51</v>
-      </c>
-      <c r="G74" s="30">
-        <v>9</v>
-      </c>
-      <c r="H74" s="30">
-        <v>55</v>
-      </c>
-      <c r="I74" s="30">
+      <c r="E74" s="37">
+        <v>370</v>
+      </c>
+      <c r="F74" s="37">
+        <v>99</v>
+      </c>
+      <c r="G74" s="37">
+        <v>47</v>
+      </c>
+      <c r="H74" s="37">
+        <v>201</v>
+      </c>
+      <c r="I74" s="37">
         <v>0</v>
       </c>
-      <c r="J74" s="30">
-        <f t="shared" si="1"/>
-        <v>252</v>
+      <c r="J74" s="37">
+        <v>717</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -33730,24 +33649,23 @@
       <c r="D75" s="30" t="s">
         <v>717</v>
       </c>
-      <c r="E75" s="30">
-        <v>24</v>
-      </c>
-      <c r="F75" s="30">
-        <v>27</v>
-      </c>
-      <c r="G75" s="30">
-        <v>5</v>
-      </c>
-      <c r="H75" s="30">
-        <v>9</v>
-      </c>
-      <c r="I75" s="30">
+      <c r="E75" s="37">
+        <v>66</v>
+      </c>
+      <c r="F75" s="37">
+        <v>50</v>
+      </c>
+      <c r="G75" s="37">
+        <v>17</v>
+      </c>
+      <c r="H75" s="37">
+        <v>19</v>
+      </c>
+      <c r="I75" s="37">
         <v>0</v>
       </c>
-      <c r="J75" s="30">
-        <f t="shared" si="1"/>
-        <v>65</v>
+      <c r="J75" s="37">
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -33763,24 +33681,23 @@
       <c r="D76" s="30" t="s">
         <v>718</v>
       </c>
-      <c r="E76" s="30">
-        <v>46</v>
-      </c>
-      <c r="F76" s="30">
-        <v>26</v>
-      </c>
-      <c r="G76" s="30">
-        <v>9</v>
-      </c>
-      <c r="H76" s="30">
-        <v>27</v>
-      </c>
-      <c r="I76" s="30">
-        <v>1</v>
-      </c>
-      <c r="J76" s="30">
-        <f t="shared" si="1"/>
-        <v>109</v>
+      <c r="E76" s="37">
+        <v>154</v>
+      </c>
+      <c r="F76" s="37">
+        <v>50</v>
+      </c>
+      <c r="G76" s="37">
+        <v>40</v>
+      </c>
+      <c r="H76" s="37">
+        <v>100</v>
+      </c>
+      <c r="I76" s="37">
+        <v>3</v>
+      </c>
+      <c r="J76" s="37">
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -33796,24 +33713,23 @@
       <c r="D77" s="30" t="s">
         <v>719</v>
       </c>
-      <c r="E77" s="30">
-        <v>64</v>
-      </c>
-      <c r="F77" s="30">
-        <v>23</v>
-      </c>
-      <c r="G77" s="30">
-        <v>2</v>
-      </c>
-      <c r="H77" s="30">
-        <v>11</v>
-      </c>
-      <c r="I77" s="30">
+      <c r="E77" s="37">
+        <v>163</v>
+      </c>
+      <c r="F77" s="37">
+        <v>25</v>
+      </c>
+      <c r="G77" s="37">
+        <v>4</v>
+      </c>
+      <c r="H77" s="37">
+        <v>41</v>
+      </c>
+      <c r="I77" s="37">
         <v>0</v>
       </c>
-      <c r="J77" s="30">
-        <f t="shared" si="1"/>
-        <v>100</v>
+      <c r="J77" s="37">
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -33829,24 +33745,23 @@
       <c r="D78" s="30" t="s">
         <v>720</v>
       </c>
-      <c r="E78" s="30">
-        <v>156</v>
-      </c>
-      <c r="F78" s="30">
-        <v>50</v>
-      </c>
-      <c r="G78" s="30">
-        <v>17</v>
-      </c>
-      <c r="H78" s="30">
-        <v>82</v>
-      </c>
-      <c r="I78" s="30">
+      <c r="E78" s="37">
+        <v>352</v>
+      </c>
+      <c r="F78" s="37">
+        <v>89</v>
+      </c>
+      <c r="G78" s="37">
+        <v>38</v>
+      </c>
+      <c r="H78" s="37">
+        <v>274</v>
+      </c>
+      <c r="I78" s="37">
         <v>0</v>
       </c>
-      <c r="J78" s="30">
-        <f t="shared" si="1"/>
-        <v>305</v>
+      <c r="J78" s="37">
+        <v>753</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -33862,24 +33777,23 @@
       <c r="D79" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="E79" s="30">
-        <v>33</v>
-      </c>
-      <c r="F79" s="30">
-        <v>19</v>
-      </c>
-      <c r="G79" s="30">
-        <v>4</v>
-      </c>
-      <c r="H79" s="30">
-        <v>29</v>
-      </c>
-      <c r="I79" s="30">
-        <v>0</v>
-      </c>
-      <c r="J79" s="30">
-        <f t="shared" si="1"/>
-        <v>85</v>
+      <c r="E79" s="37">
+        <v>51</v>
+      </c>
+      <c r="F79" s="37">
+        <v>22</v>
+      </c>
+      <c r="G79" s="37">
+        <v>7</v>
+      </c>
+      <c r="H79" s="37">
+        <v>65</v>
+      </c>
+      <c r="I79" s="37">
+        <v>2</v>
+      </c>
+      <c r="J79" s="37">
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -33895,24 +33809,23 @@
       <c r="D80" s="30" t="s">
         <v>722</v>
       </c>
-      <c r="E80" s="30">
-        <v>45</v>
-      </c>
-      <c r="F80" s="30">
-        <v>7</v>
-      </c>
-      <c r="G80" s="30">
-        <v>1</v>
-      </c>
-      <c r="H80" s="30">
-        <v>11</v>
-      </c>
-      <c r="I80" s="30">
+      <c r="E80" s="37">
+        <v>125</v>
+      </c>
+      <c r="F80" s="37">
+        <v>14</v>
+      </c>
+      <c r="G80" s="37">
+        <v>6</v>
+      </c>
+      <c r="H80" s="37">
+        <v>50</v>
+      </c>
+      <c r="I80" s="37">
         <v>0</v>
       </c>
-      <c r="J80" s="30">
-        <f t="shared" si="1"/>
-        <v>64</v>
+      <c r="J80" s="37">
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -33928,24 +33841,23 @@
       <c r="D81" s="30" t="s">
         <v>723</v>
       </c>
-      <c r="E81" s="30">
-        <v>194</v>
-      </c>
-      <c r="F81" s="30">
-        <v>71</v>
-      </c>
-      <c r="G81" s="30">
-        <v>4</v>
-      </c>
-      <c r="H81" s="30">
-        <v>97</v>
-      </c>
-      <c r="I81" s="30">
+      <c r="E81" s="37">
+        <v>477</v>
+      </c>
+      <c r="F81" s="37">
+        <v>122</v>
+      </c>
+      <c r="G81" s="37">
+        <v>13</v>
+      </c>
+      <c r="H81" s="37">
+        <v>294</v>
+      </c>
+      <c r="I81" s="37">
         <v>0</v>
       </c>
-      <c r="J81" s="30">
-        <f t="shared" si="1"/>
-        <v>366</v>
+      <c r="J81" s="37">
+        <v>906</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -33961,24 +33873,23 @@
       <c r="D82" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="E82" s="30">
-        <v>125</v>
-      </c>
-      <c r="F82" s="30">
-        <v>35</v>
-      </c>
-      <c r="G82" s="30">
-        <v>1</v>
-      </c>
-      <c r="H82" s="30">
-        <v>46</v>
-      </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-      <c r="J82" s="30">
-        <f t="shared" si="1"/>
-        <v>207</v>
+      <c r="E82" s="37">
+        <v>303</v>
+      </c>
+      <c r="F82" s="37">
+        <v>59</v>
+      </c>
+      <c r="G82" s="37">
+        <v>5</v>
+      </c>
+      <c r="H82" s="37">
+        <v>110</v>
+      </c>
+      <c r="I82" s="37">
+        <v>2</v>
+      </c>
+      <c r="J82" s="37">
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -33994,24 +33905,23 @@
       <c r="D83" s="30" t="s">
         <v>724</v>
       </c>
-      <c r="E83" s="30">
-        <v>54</v>
-      </c>
-      <c r="F83" s="30">
-        <v>40</v>
-      </c>
-      <c r="G83" s="30">
-        <v>19</v>
-      </c>
-      <c r="H83" s="30">
-        <v>31</v>
-      </c>
-      <c r="I83" s="30">
+      <c r="E83" s="37">
+        <v>143</v>
+      </c>
+      <c r="F83" s="37">
+        <v>65</v>
+      </c>
+      <c r="G83" s="37">
+        <v>49</v>
+      </c>
+      <c r="H83" s="37">
+        <v>66</v>
+      </c>
+      <c r="I83" s="37">
         <v>0</v>
       </c>
-      <c r="J83" s="30">
-        <f t="shared" si="1"/>
-        <v>144</v>
+      <c r="J83" s="37">
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -34027,24 +33937,23 @@
       <c r="D84" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="E84" s="30">
-        <v>77</v>
-      </c>
-      <c r="F84" s="30">
-        <v>44</v>
-      </c>
-      <c r="G84" s="30">
-        <v>4</v>
-      </c>
-      <c r="H84" s="30">
-        <v>20</v>
-      </c>
-      <c r="I84" s="30">
+      <c r="E84" s="37">
+        <v>187</v>
+      </c>
+      <c r="F84" s="37">
+        <v>85</v>
+      </c>
+      <c r="G84" s="37">
+        <v>13</v>
+      </c>
+      <c r="H84" s="37">
+        <v>59</v>
+      </c>
+      <c r="I84" s="37">
         <v>0</v>
       </c>
-      <c r="J84" s="30">
-        <f t="shared" si="1"/>
-        <v>145</v>
+      <c r="J84" s="37">
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -34060,24 +33969,23 @@
       <c r="D85" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="E85" s="30">
-        <v>15</v>
-      </c>
-      <c r="F85" s="30">
-        <v>8</v>
-      </c>
-      <c r="G85" s="30">
-        <v>6</v>
-      </c>
-      <c r="H85" s="30">
-        <v>7</v>
-      </c>
-      <c r="I85" s="30">
+      <c r="E85" s="37">
+        <v>41</v>
+      </c>
+      <c r="F85" s="37">
+        <v>17</v>
+      </c>
+      <c r="G85" s="37">
+        <v>14</v>
+      </c>
+      <c r="H85" s="37">
+        <v>34</v>
+      </c>
+      <c r="I85" s="37">
         <v>0</v>
       </c>
-      <c r="J85" s="30">
-        <f t="shared" si="1"/>
-        <v>36</v>
+      <c r="J85" s="37">
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -34093,24 +34001,23 @@
       <c r="D86" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="E86" s="30">
-        <v>188</v>
-      </c>
-      <c r="F86" s="30">
-        <v>169</v>
-      </c>
-      <c r="G86" s="30">
-        <v>29</v>
-      </c>
-      <c r="H86" s="30">
-        <v>47</v>
-      </c>
-      <c r="I86" s="30">
-        <v>1</v>
-      </c>
-      <c r="J86" s="30">
-        <f t="shared" si="1"/>
-        <v>434</v>
+      <c r="E86" s="37">
+        <v>538</v>
+      </c>
+      <c r="F86" s="37">
+        <v>229</v>
+      </c>
+      <c r="G86" s="37">
+        <v>77</v>
+      </c>
+      <c r="H86" s="37">
+        <v>134</v>
+      </c>
+      <c r="I86" s="37">
+        <v>6</v>
+      </c>
+      <c r="J86" s="37">
+        <v>984</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -34126,24 +34033,23 @@
       <c r="D87" s="30" t="s">
         <v>729</v>
       </c>
-      <c r="E87" s="30">
-        <v>254</v>
-      </c>
-      <c r="F87" s="30">
-        <v>46</v>
-      </c>
-      <c r="G87" s="30">
-        <v>9</v>
-      </c>
-      <c r="H87" s="30">
-        <v>48</v>
-      </c>
-      <c r="I87" s="30">
-        <v>0</v>
-      </c>
-      <c r="J87" s="30">
-        <f t="shared" si="1"/>
-        <v>357</v>
+      <c r="E87" s="37">
+        <v>615</v>
+      </c>
+      <c r="F87" s="37">
+        <v>71</v>
+      </c>
+      <c r="G87" s="37">
+        <v>22</v>
+      </c>
+      <c r="H87" s="37">
+        <v>135</v>
+      </c>
+      <c r="I87" s="37">
+        <v>2</v>
+      </c>
+      <c r="J87" s="37">
+        <v>845</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -34159,24 +34065,23 @@
       <c r="D88" s="30" t="s">
         <v>730</v>
       </c>
-      <c r="E88" s="30">
-        <v>17</v>
-      </c>
-      <c r="F88" s="30">
-        <v>19</v>
-      </c>
-      <c r="G88" s="30">
-        <v>5</v>
-      </c>
-      <c r="H88" s="30">
+      <c r="E88" s="37">
+        <v>48</v>
+      </c>
+      <c r="F88" s="37">
+        <v>29</v>
+      </c>
+      <c r="G88" s="37">
         <v>10</v>
       </c>
-      <c r="I88" s="30">
+      <c r="H88" s="37">
+        <v>33</v>
+      </c>
+      <c r="I88" s="37">
         <v>0</v>
       </c>
-      <c r="J88" s="30">
-        <f t="shared" si="1"/>
-        <v>51</v>
+      <c r="J88" s="37">
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -34192,24 +34097,23 @@
       <c r="D89" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="E89" s="30">
-        <v>106</v>
-      </c>
-      <c r="F89" s="30">
-        <v>59</v>
-      </c>
-      <c r="G89" s="30">
-        <v>31</v>
-      </c>
-      <c r="H89" s="30">
-        <v>83</v>
-      </c>
-      <c r="I89" s="30">
+      <c r="E89" s="37">
+        <v>270</v>
+      </c>
+      <c r="F89" s="37">
+        <v>127</v>
+      </c>
+      <c r="G89" s="37">
+        <v>91</v>
+      </c>
+      <c r="H89" s="37">
+        <v>272</v>
+      </c>
+      <c r="I89" s="37">
         <v>1</v>
       </c>
-      <c r="J89" s="30">
-        <f t="shared" si="1"/>
-        <v>280</v>
+      <c r="J89" s="37">
+        <v>761</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -34225,24 +34129,23 @@
       <c r="D90" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="E90" s="30">
+      <c r="E90" s="37">
+        <v>101</v>
+      </c>
+      <c r="F90" s="37">
+        <v>59</v>
+      </c>
+      <c r="G90" s="37">
+        <v>32</v>
+      </c>
+      <c r="H90" s="37">
         <v>36</v>
       </c>
-      <c r="F90" s="30">
-        <v>29</v>
-      </c>
-      <c r="G90" s="30">
-        <v>12</v>
-      </c>
-      <c r="H90" s="30">
-        <v>11</v>
-      </c>
-      <c r="I90" s="30">
-        <v>1</v>
-      </c>
-      <c r="J90" s="30">
-        <f t="shared" si="1"/>
-        <v>89</v>
+      <c r="I90" s="37">
+        <v>3</v>
+      </c>
+      <c r="J90" s="37">
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -34258,24 +34161,23 @@
       <c r="D91" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="E91" s="30">
-        <v>105</v>
-      </c>
-      <c r="F91" s="30">
-        <v>27</v>
-      </c>
-      <c r="G91" s="30">
-        <v>14</v>
-      </c>
-      <c r="H91" s="30">
-        <v>56</v>
-      </c>
-      <c r="I91" s="30">
-        <v>0</v>
-      </c>
-      <c r="J91" s="30">
-        <f t="shared" si="1"/>
-        <v>202</v>
+      <c r="E91" s="37">
+        <v>307</v>
+      </c>
+      <c r="F91" s="37">
+        <v>50</v>
+      </c>
+      <c r="G91" s="37">
+        <v>39</v>
+      </c>
+      <c r="H91" s="37">
+        <v>131</v>
+      </c>
+      <c r="I91" s="37">
+        <v>1</v>
+      </c>
+      <c r="J91" s="37">
+        <v>528</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -34291,24 +34193,23 @@
       <c r="D92" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="E92" s="30">
-        <v>36</v>
-      </c>
-      <c r="F92" s="30">
-        <v>15</v>
-      </c>
-      <c r="G92" s="30">
-        <v>5</v>
-      </c>
-      <c r="H92" s="30">
-        <v>23</v>
-      </c>
-      <c r="I92" s="30">
-        <v>0</v>
-      </c>
-      <c r="J92" s="30">
-        <f t="shared" si="1"/>
-        <v>79</v>
+      <c r="E92" s="37">
+        <v>85</v>
+      </c>
+      <c r="F92" s="37">
+        <v>37</v>
+      </c>
+      <c r="G92" s="37">
+        <v>19</v>
+      </c>
+      <c r="H92" s="37">
+        <v>65</v>
+      </c>
+      <c r="I92" s="37">
+        <v>2</v>
+      </c>
+      <c r="J92" s="37">
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -34324,24 +34225,23 @@
       <c r="D93" s="30" t="s">
         <v>737</v>
       </c>
-      <c r="E93" s="30">
-        <v>71</v>
-      </c>
-      <c r="F93" s="30">
-        <v>39</v>
-      </c>
-      <c r="G93" s="30">
-        <v>19</v>
-      </c>
-      <c r="H93" s="30">
-        <v>36</v>
-      </c>
-      <c r="I93" s="30">
+      <c r="E93" s="37">
+        <v>206</v>
+      </c>
+      <c r="F93" s="37">
+        <v>89</v>
+      </c>
+      <c r="G93" s="37">
+        <v>54</v>
+      </c>
+      <c r="H93" s="37">
+        <v>144</v>
+      </c>
+      <c r="I93" s="37">
         <v>0</v>
       </c>
-      <c r="J93" s="30">
-        <f t="shared" si="1"/>
-        <v>165</v>
+      <c r="J93" s="37">
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -34357,24 +34257,23 @@
       <c r="D94" s="30" t="s">
         <v>810</v>
       </c>
-      <c r="E94" s="30">
-        <v>98</v>
-      </c>
-      <c r="F94" s="30">
-        <v>41</v>
-      </c>
-      <c r="G94" s="30">
-        <v>9</v>
-      </c>
-      <c r="H94" s="30">
-        <v>52</v>
-      </c>
-      <c r="I94" s="30">
+      <c r="E94" s="37">
+        <v>341</v>
+      </c>
+      <c r="F94" s="37">
+        <v>82</v>
+      </c>
+      <c r="G94" s="37">
+        <v>31</v>
+      </c>
+      <c r="H94" s="37">
+        <v>176</v>
+      </c>
+      <c r="I94" s="37">
         <v>0</v>
       </c>
-      <c r="J94" s="30">
-        <f t="shared" si="1"/>
-        <v>200</v>
+      <c r="J94" s="37">
+        <v>630</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -34390,24 +34289,23 @@
       <c r="D95" s="30" t="s">
         <v>738</v>
       </c>
-      <c r="E95" s="30">
-        <v>43</v>
-      </c>
-      <c r="F95" s="30">
-        <v>15</v>
-      </c>
-      <c r="G95" s="30">
+      <c r="E95" s="37">
+        <v>113</v>
+      </c>
+      <c r="F95" s="37">
+        <v>28</v>
+      </c>
+      <c r="G95" s="37">
+        <v>11</v>
+      </c>
+      <c r="H95" s="37">
+        <v>82</v>
+      </c>
+      <c r="I95" s="37">
         <v>3</v>
       </c>
-      <c r="H95" s="30">
-        <v>29</v>
-      </c>
-      <c r="I95" s="30">
-        <v>2</v>
-      </c>
-      <c r="J95" s="30">
-        <f t="shared" si="1"/>
-        <v>92</v>
+      <c r="J95" s="37">
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -34423,24 +34321,23 @@
       <c r="D96" s="30" t="s">
         <v>739</v>
       </c>
-      <c r="E96" s="30">
-        <v>108</v>
-      </c>
-      <c r="F96" s="30">
-        <v>73</v>
-      </c>
-      <c r="G96" s="30">
-        <v>31</v>
-      </c>
-      <c r="H96" s="30">
-        <v>146</v>
-      </c>
-      <c r="I96" s="30">
-        <v>0</v>
-      </c>
-      <c r="J96" s="30">
-        <f t="shared" si="1"/>
-        <v>358</v>
+      <c r="E96" s="37">
+        <v>294</v>
+      </c>
+      <c r="F96" s="37">
+        <v>147</v>
+      </c>
+      <c r="G96" s="37">
+        <v>99</v>
+      </c>
+      <c r="H96" s="37">
+        <v>450</v>
+      </c>
+      <c r="I96" s="37">
+        <v>2</v>
+      </c>
+      <c r="J96" s="37">
+        <v>992</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -34456,24 +34353,23 @@
       <c r="D97" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E97" s="30">
-        <v>175</v>
-      </c>
-      <c r="F97" s="30">
-        <v>53</v>
-      </c>
-      <c r="G97" s="30">
-        <v>2</v>
-      </c>
-      <c r="H97" s="30">
-        <v>26</v>
-      </c>
-      <c r="I97" s="30">
+      <c r="E97" s="37">
+        <v>486</v>
+      </c>
+      <c r="F97" s="37">
+        <v>85</v>
+      </c>
+      <c r="G97" s="37">
+        <v>7</v>
+      </c>
+      <c r="H97" s="37">
+        <v>73</v>
+      </c>
+      <c r="I97" s="37">
         <v>0</v>
       </c>
-      <c r="J97" s="30">
-        <f t="shared" si="1"/>
-        <v>256</v>
+      <c r="J97" s="37">
+        <v>651</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -34489,24 +34385,23 @@
       <c r="D98" s="30" t="s">
         <v>770</v>
       </c>
-      <c r="E98" s="30">
-        <v>5</v>
-      </c>
-      <c r="F98" s="30">
+      <c r="E98" s="37">
+        <v>10</v>
+      </c>
+      <c r="F98" s="37">
+        <v>7</v>
+      </c>
+      <c r="G98" s="37">
         <v>2</v>
       </c>
-      <c r="G98" s="30">
-        <v>1</v>
-      </c>
-      <c r="H98" s="30">
-        <v>2</v>
-      </c>
-      <c r="I98" s="30">
+      <c r="H98" s="37">
+        <v>6</v>
+      </c>
+      <c r="I98" s="37">
         <v>0</v>
       </c>
-      <c r="J98" s="30">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="J98" s="37">
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -34522,24 +34417,23 @@
       <c r="D99" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="E99" s="30">
-        <v>338</v>
-      </c>
-      <c r="F99" s="30">
-        <v>154</v>
-      </c>
-      <c r="G99" s="30">
-        <v>47</v>
-      </c>
-      <c r="H99" s="30">
-        <v>125</v>
-      </c>
-      <c r="I99" s="30">
-        <v>0</v>
-      </c>
-      <c r="J99" s="30">
-        <f t="shared" si="1"/>
-        <v>664</v>
+      <c r="E99" s="37">
+        <v>988</v>
+      </c>
+      <c r="F99" s="37">
+        <v>305</v>
+      </c>
+      <c r="G99" s="37">
+        <v>160</v>
+      </c>
+      <c r="H99" s="37">
+        <v>404</v>
+      </c>
+      <c r="I99" s="37">
+        <v>1</v>
+      </c>
+      <c r="J99" s="37">
+        <v>1858</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -34555,24 +34449,23 @@
       <c r="D100" s="30" t="s">
         <v>705</v>
       </c>
-      <c r="E100" s="30">
-        <v>19</v>
-      </c>
-      <c r="F100" s="30">
+      <c r="E100" s="37">
+        <v>57</v>
+      </c>
+      <c r="F100" s="37">
         <v>3</v>
       </c>
-      <c r="G100" s="30">
+      <c r="G100" s="37">
         <v>1</v>
       </c>
-      <c r="H100" s="30">
-        <v>3</v>
-      </c>
-      <c r="I100" s="30">
+      <c r="H100" s="37">
+        <v>8</v>
+      </c>
+      <c r="I100" s="37">
         <v>1</v>
       </c>
-      <c r="J100" s="30">
-        <f t="shared" si="1"/>
-        <v>27</v>
+      <c r="J100" s="37">
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -34588,24 +34481,23 @@
       <c r="D101" s="30">
         <v>2281246667</v>
       </c>
-      <c r="E101" s="30">
-        <v>112</v>
-      </c>
-      <c r="F101" s="30">
-        <v>34</v>
-      </c>
-      <c r="G101" s="30">
-        <v>5</v>
-      </c>
-      <c r="H101" s="30">
-        <v>24</v>
-      </c>
-      <c r="I101" s="30">
+      <c r="E101" s="37">
+        <v>295</v>
+      </c>
+      <c r="F101" s="37">
+        <v>43</v>
+      </c>
+      <c r="G101" s="37">
+        <v>12</v>
+      </c>
+      <c r="H101" s="37">
+        <v>68</v>
+      </c>
+      <c r="I101" s="37">
         <v>1</v>
       </c>
-      <c r="J101" s="30">
-        <f t="shared" si="1"/>
-        <v>176</v>
+      <c r="J101" s="37">
+        <v>419</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -34621,24 +34513,23 @@
       <c r="D102" s="30" t="s">
         <v>775</v>
       </c>
-      <c r="E102" s="30">
-        <v>37</v>
-      </c>
-      <c r="F102" s="30">
-        <v>38</v>
-      </c>
-      <c r="G102" s="30">
-        <v>21</v>
-      </c>
-      <c r="H102" s="30">
-        <v>72</v>
-      </c>
-      <c r="I102" s="30">
-        <v>1</v>
-      </c>
-      <c r="J102" s="30">
-        <f t="shared" si="1"/>
-        <v>169</v>
+      <c r="E102" s="37">
+        <v>105</v>
+      </c>
+      <c r="F102" s="37">
+        <v>87</v>
+      </c>
+      <c r="G102" s="37">
+        <v>56</v>
+      </c>
+      <c r="H102" s="37">
+        <v>257</v>
+      </c>
+      <c r="I102" s="37">
+        <v>2</v>
+      </c>
+      <c r="J102" s="37">
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -34654,24 +34545,23 @@
       <c r="D103" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="E103" s="30">
-        <v>34</v>
-      </c>
-      <c r="F103" s="30">
+      <c r="E103" s="37">
+        <v>110</v>
+      </c>
+      <c r="F103" s="37">
+        <v>17</v>
+      </c>
+      <c r="G103" s="37">
+        <v>1</v>
+      </c>
+      <c r="H103" s="37">
         <v>15</v>
       </c>
-      <c r="G103" s="30">
+      <c r="I103" s="37">
         <v>0</v>
       </c>
-      <c r="H103" s="30">
-        <v>7</v>
-      </c>
-      <c r="I103" s="30">
-        <v>0</v>
-      </c>
-      <c r="J103" s="30">
-        <f t="shared" si="1"/>
-        <v>56</v>
+      <c r="J103" s="37">
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -34687,24 +34577,23 @@
       <c r="D104" s="30" t="s">
         <v>780</v>
       </c>
-      <c r="E104" s="30">
-        <v>15</v>
-      </c>
-      <c r="F104" s="30">
-        <v>12</v>
-      </c>
-      <c r="G104" s="30">
+      <c r="E104" s="37">
+        <v>56</v>
+      </c>
+      <c r="F104" s="37">
+        <v>19</v>
+      </c>
+      <c r="G104" s="37">
+        <v>1</v>
+      </c>
+      <c r="H104" s="37">
+        <v>8</v>
+      </c>
+      <c r="I104" s="37">
         <v>0</v>
       </c>
-      <c r="H104" s="30">
-        <v>5</v>
-      </c>
-      <c r="I104" s="30">
-        <v>0</v>
-      </c>
-      <c r="J104" s="30">
-        <f t="shared" si="1"/>
-        <v>32</v>
+      <c r="J104" s="37">
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -34720,24 +34609,23 @@
       <c r="D105" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="E105" s="30">
-        <v>77</v>
-      </c>
-      <c r="F105" s="30">
-        <v>47</v>
-      </c>
-      <c r="G105" s="30">
-        <v>6</v>
-      </c>
-      <c r="H105" s="30">
-        <v>21</v>
-      </c>
-      <c r="I105" s="30">
-        <v>1</v>
-      </c>
-      <c r="J105" s="30">
-        <f t="shared" si="1"/>
-        <v>152</v>
+      <c r="E105" s="37">
+        <v>197</v>
+      </c>
+      <c r="F105" s="37">
+        <v>88</v>
+      </c>
+      <c r="G105" s="37">
+        <v>28</v>
+      </c>
+      <c r="H105" s="37">
+        <v>60</v>
+      </c>
+      <c r="I105" s="37">
+        <v>2</v>
+      </c>
+      <c r="J105" s="37">
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -34753,24 +34641,23 @@
       <c r="D106" s="30" t="s">
         <v>743</v>
       </c>
-      <c r="E106" s="30">
-        <v>81</v>
-      </c>
-      <c r="F106" s="30">
-        <v>81</v>
-      </c>
-      <c r="G106" s="30">
-        <v>20</v>
-      </c>
-      <c r="H106" s="30">
-        <v>29</v>
-      </c>
-      <c r="I106" s="30">
-        <v>0</v>
-      </c>
-      <c r="J106" s="30">
-        <f t="shared" si="1"/>
-        <v>211</v>
+      <c r="E106" s="37">
+        <v>228</v>
+      </c>
+      <c r="F106" s="37">
+        <v>148</v>
+      </c>
+      <c r="G106" s="37">
+        <v>65</v>
+      </c>
+      <c r="H106" s="37">
+        <v>103</v>
+      </c>
+      <c r="I106" s="37">
+        <v>1</v>
+      </c>
+      <c r="J106" s="37">
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -34786,24 +34673,23 @@
       <c r="D107" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="E107" s="30">
+      <c r="E107" s="37">
+        <v>393</v>
+      </c>
+      <c r="F107" s="37">
         <v>150</v>
       </c>
-      <c r="F107" s="30">
-        <v>103</v>
-      </c>
-      <c r="G107" s="30">
-        <v>9</v>
-      </c>
-      <c r="H107" s="30">
-        <v>29</v>
-      </c>
-      <c r="I107" s="30">
+      <c r="G107" s="37">
+        <v>26</v>
+      </c>
+      <c r="H107" s="37">
+        <v>68</v>
+      </c>
+      <c r="I107" s="37">
         <v>0</v>
       </c>
-      <c r="J107" s="30">
-        <f t="shared" si="1"/>
-        <v>291</v>
+      <c r="J107" s="37">
+        <v>637</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -34819,24 +34705,23 @@
       <c r="D108" s="30" t="s">
         <v>745</v>
       </c>
-      <c r="E108" s="30">
-        <v>368</v>
-      </c>
-      <c r="F108" s="30">
-        <v>183</v>
-      </c>
-      <c r="G108" s="30">
-        <v>50</v>
-      </c>
-      <c r="H108" s="30">
-        <v>256</v>
-      </c>
-      <c r="I108" s="30">
-        <v>3</v>
-      </c>
-      <c r="J108" s="30">
-        <f t="shared" si="1"/>
-        <v>860</v>
+      <c r="E108" s="37">
+        <v>1070</v>
+      </c>
+      <c r="F108" s="37">
+        <v>331</v>
+      </c>
+      <c r="G108" s="37">
+        <v>167</v>
+      </c>
+      <c r="H108" s="37">
+        <v>772</v>
+      </c>
+      <c r="I108" s="37">
+        <v>7</v>
+      </c>
+      <c r="J108" s="37">
+        <v>2347</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -34852,24 +34737,23 @@
       <c r="D109" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="E109" s="30">
-        <v>61</v>
-      </c>
-      <c r="F109" s="30">
-        <v>33</v>
-      </c>
-      <c r="G109" s="30">
+      <c r="E109" s="37">
+        <v>169</v>
+      </c>
+      <c r="F109" s="37">
+        <v>46</v>
+      </c>
+      <c r="G109" s="37">
+        <v>4</v>
+      </c>
+      <c r="H109" s="37">
+        <v>40</v>
+      </c>
+      <c r="I109" s="37">
         <v>0</v>
       </c>
-      <c r="H109" s="30">
-        <v>11</v>
-      </c>
-      <c r="I109" s="30">
-        <v>0</v>
-      </c>
-      <c r="J109" s="30">
-        <f t="shared" si="1"/>
-        <v>105</v>
+      <c r="J109" s="37">
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -34885,24 +34769,23 @@
       <c r="D110" s="30" t="s">
         <v>747</v>
       </c>
-      <c r="E110" s="30">
-        <v>54</v>
-      </c>
-      <c r="F110" s="30">
-        <v>22</v>
-      </c>
-      <c r="G110" s="30">
-        <v>4</v>
-      </c>
-      <c r="H110" s="30">
-        <v>35</v>
-      </c>
-      <c r="I110" s="30">
+      <c r="E110" s="37">
+        <v>173</v>
+      </c>
+      <c r="F110" s="37">
+        <v>48</v>
+      </c>
+      <c r="G110" s="37">
+        <v>12</v>
+      </c>
+      <c r="H110" s="37">
+        <v>83</v>
+      </c>
+      <c r="I110" s="37">
         <v>0</v>
       </c>
-      <c r="J110" s="30">
-        <f t="shared" si="1"/>
-        <v>115</v>
+      <c r="J110" s="37">
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -34918,24 +34801,23 @@
       <c r="D111" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="E111" s="30">
-        <v>137</v>
-      </c>
-      <c r="F111" s="30">
-        <v>167</v>
-      </c>
-      <c r="G111" s="30">
-        <v>32</v>
-      </c>
-      <c r="H111" s="30">
-        <v>81</v>
-      </c>
-      <c r="I111" s="30">
-        <v>0</v>
-      </c>
-      <c r="J111" s="30">
-        <f t="shared" si="1"/>
-        <v>417</v>
+      <c r="E111" s="37">
+        <v>386</v>
+      </c>
+      <c r="F111" s="37">
+        <v>256</v>
+      </c>
+      <c r="G111" s="37">
+        <v>152</v>
+      </c>
+      <c r="H111" s="37">
+        <v>211</v>
+      </c>
+      <c r="I111" s="37">
+        <v>2</v>
+      </c>
+      <c r="J111" s="37">
+        <v>1007</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -34951,24 +34833,23 @@
       <c r="D112" s="30" t="s">
         <v>749</v>
       </c>
-      <c r="E112" s="30">
-        <v>22</v>
-      </c>
-      <c r="F112" s="30">
-        <v>13</v>
-      </c>
-      <c r="G112" s="30">
-        <v>0</v>
-      </c>
-      <c r="H112" s="30">
-        <v>5</v>
-      </c>
-      <c r="I112" s="30">
-        <v>0</v>
-      </c>
-      <c r="J112" s="30">
-        <f t="shared" si="1"/>
-        <v>40</v>
+      <c r="E112" s="37">
+        <v>53</v>
+      </c>
+      <c r="F112" s="37">
+        <v>18</v>
+      </c>
+      <c r="G112" s="37">
+        <v>1</v>
+      </c>
+      <c r="H112" s="37">
+        <v>12</v>
+      </c>
+      <c r="I112" s="37">
+        <v>1</v>
+      </c>
+      <c r="J112" s="37">
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -34984,24 +34865,23 @@
       <c r="D113" s="30" t="s">
         <v>750</v>
       </c>
-      <c r="E113" s="30">
-        <v>354</v>
-      </c>
-      <c r="F113" s="30">
-        <v>179</v>
-      </c>
-      <c r="G113" s="30">
-        <v>103</v>
-      </c>
-      <c r="H113" s="30">
-        <v>433</v>
-      </c>
-      <c r="I113" s="30">
-        <v>1</v>
-      </c>
-      <c r="J113" s="30">
-        <f t="shared" si="1"/>
-        <v>1070</v>
+      <c r="E113" s="37">
+        <v>1102</v>
+      </c>
+      <c r="F113" s="37">
+        <v>380</v>
+      </c>
+      <c r="G113" s="37">
+        <v>311</v>
+      </c>
+      <c r="H113" s="37">
+        <v>1348</v>
+      </c>
+      <c r="I113" s="37">
+        <v>4</v>
+      </c>
+      <c r="J113" s="37">
+        <v>3145</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -35017,24 +34897,23 @@
       <c r="D114" s="30" t="s">
         <v>751</v>
       </c>
-      <c r="E114" s="30">
-        <v>158</v>
-      </c>
-      <c r="F114" s="30">
-        <v>93</v>
-      </c>
-      <c r="G114" s="30">
-        <v>16</v>
-      </c>
-      <c r="H114" s="30">
-        <v>122</v>
-      </c>
-      <c r="I114" s="30">
-        <v>2</v>
-      </c>
-      <c r="J114" s="30">
-        <f t="shared" si="1"/>
-        <v>391</v>
+      <c r="E114" s="37">
+        <v>541</v>
+      </c>
+      <c r="F114" s="37">
+        <v>132</v>
+      </c>
+      <c r="G114" s="37">
+        <v>58</v>
+      </c>
+      <c r="H114" s="37">
+        <v>364</v>
+      </c>
+      <c r="I114" s="37">
+        <v>11</v>
+      </c>
+      <c r="J114" s="37">
+        <v>1106</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -35050,24 +34929,23 @@
       <c r="D115" s="30" t="s">
         <v>752</v>
       </c>
-      <c r="E115" s="30">
-        <v>76</v>
-      </c>
-      <c r="F115" s="30">
-        <v>19</v>
-      </c>
-      <c r="G115" s="30">
+      <c r="E115" s="37">
+        <v>201</v>
+      </c>
+      <c r="F115" s="37">
+        <v>26</v>
+      </c>
+      <c r="G115" s="37">
+        <v>2</v>
+      </c>
+      <c r="H115" s="37">
+        <v>44</v>
+      </c>
+      <c r="I115" s="37">
         <v>1</v>
       </c>
-      <c r="H115" s="30">
-        <v>16</v>
-      </c>
-      <c r="I115" s="30">
-        <v>0</v>
-      </c>
-      <c r="J115" s="30">
-        <f t="shared" si="1"/>
-        <v>112</v>
+      <c r="J115" s="37">
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -35083,24 +34961,23 @@
       <c r="D116" s="30" t="s">
         <v>753</v>
       </c>
-      <c r="E116" s="30">
+      <c r="E116" s="37">
+        <v>103</v>
+      </c>
+      <c r="F116" s="37">
         <v>35</v>
       </c>
-      <c r="F116" s="30">
-        <v>17</v>
-      </c>
-      <c r="G116" s="30">
-        <v>9</v>
-      </c>
-      <c r="H116" s="30">
-        <v>19</v>
-      </c>
-      <c r="I116" s="30">
+      <c r="G116" s="37">
+        <v>31</v>
+      </c>
+      <c r="H116" s="37">
+        <v>59</v>
+      </c>
+      <c r="I116" s="37">
         <v>0</v>
       </c>
-      <c r="J116" s="30">
-        <f t="shared" si="1"/>
-        <v>80</v>
+      <c r="J116" s="37">
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -35116,24 +34993,23 @@
       <c r="D117" s="30" t="s">
         <v>754</v>
       </c>
-      <c r="E117" s="30">
-        <v>68</v>
-      </c>
-      <c r="F117" s="30">
-        <v>38</v>
-      </c>
-      <c r="G117" s="30">
-        <v>18</v>
-      </c>
-      <c r="H117" s="30">
-        <v>39</v>
-      </c>
-      <c r="I117" s="30">
+      <c r="E117" s="37">
+        <v>177</v>
+      </c>
+      <c r="F117" s="37">
+        <v>94</v>
+      </c>
+      <c r="G117" s="37">
+        <v>59</v>
+      </c>
+      <c r="H117" s="37">
+        <v>128</v>
+      </c>
+      <c r="I117" s="37">
         <v>0</v>
       </c>
-      <c r="J117" s="30">
-        <f t="shared" si="1"/>
-        <v>163</v>
+      <c r="J117" s="37">
+        <v>458</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -35149,24 +35025,23 @@
       <c r="D118" s="30" t="s">
         <v>847</v>
       </c>
-      <c r="E118" s="30">
-        <v>84</v>
-      </c>
-      <c r="F118" s="30">
-        <v>35</v>
-      </c>
-      <c r="G118" s="30">
-        <v>9</v>
-      </c>
-      <c r="H118" s="30">
-        <v>51</v>
-      </c>
-      <c r="I118" s="30">
+      <c r="E118" s="37">
+        <v>180</v>
+      </c>
+      <c r="F118" s="37">
+        <v>49</v>
+      </c>
+      <c r="G118" s="37">
+        <v>18</v>
+      </c>
+      <c r="H118" s="37">
+        <v>113</v>
+      </c>
+      <c r="I118" s="37">
         <v>0</v>
       </c>
-      <c r="J118" s="30">
-        <f t="shared" si="1"/>
-        <v>179</v>
+      <c r="J118" s="37">
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -35182,24 +35057,23 @@
       <c r="D119" s="30" t="s">
         <v>755</v>
       </c>
-      <c r="E119" s="30">
-        <v>19</v>
-      </c>
-      <c r="F119" s="30">
-        <v>15</v>
-      </c>
-      <c r="G119" s="30">
-        <v>3</v>
-      </c>
-      <c r="H119" s="30">
-        <v>9</v>
-      </c>
-      <c r="I119" s="30">
+      <c r="E119" s="37">
+        <v>44</v>
+      </c>
+      <c r="F119" s="37">
+        <v>36</v>
+      </c>
+      <c r="G119" s="37">
+        <v>10</v>
+      </c>
+      <c r="H119" s="37">
+        <v>20</v>
+      </c>
+      <c r="I119" s="37">
         <v>0</v>
       </c>
-      <c r="J119" s="30">
-        <f t="shared" si="1"/>
-        <v>46</v>
+      <c r="J119" s="37">
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -35215,24 +35089,23 @@
       <c r="D120" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="E120" s="30">
-        <v>82</v>
-      </c>
-      <c r="F120" s="30">
-        <v>26</v>
-      </c>
-      <c r="G120" s="30">
-        <v>19</v>
-      </c>
-      <c r="H120" s="30">
-        <v>65</v>
-      </c>
-      <c r="I120" s="30">
-        <v>0</v>
-      </c>
-      <c r="J120" s="30">
-        <f t="shared" si="1"/>
-        <v>192</v>
+      <c r="E120" s="37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F120" s="37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G120" s="37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H120" s="37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I120" s="37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J120" s="37" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -35248,24 +35121,23 @@
       <c r="D121" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="E121" s="30">
-        <v>25</v>
-      </c>
-      <c r="F121" s="30">
-        <v>18</v>
-      </c>
-      <c r="G121" s="30">
-        <v>5</v>
-      </c>
-      <c r="H121" s="30">
-        <v>25</v>
-      </c>
-      <c r="I121" s="30">
+      <c r="E121" s="37">
+        <v>66</v>
+      </c>
+      <c r="F121" s="37">
+        <v>40</v>
+      </c>
+      <c r="G121" s="37">
+        <v>11</v>
+      </c>
+      <c r="H121" s="37">
+        <v>64</v>
+      </c>
+      <c r="I121" s="37">
         <v>2</v>
       </c>
-      <c r="J121" s="30">
-        <f t="shared" si="1"/>
-        <v>75</v>
+      <c r="J121" s="37">
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -35281,24 +35153,23 @@
       <c r="D122" s="30" t="s">
         <v>757</v>
       </c>
-      <c r="E122" s="30">
-        <v>94</v>
-      </c>
-      <c r="F122" s="30">
-        <v>73</v>
-      </c>
-      <c r="G122" s="30">
-        <v>19</v>
-      </c>
-      <c r="H122" s="30">
-        <v>51</v>
-      </c>
-      <c r="I122" s="30">
-        <v>1</v>
-      </c>
-      <c r="J122" s="30">
-        <f t="shared" si="1"/>
-        <v>238</v>
+      <c r="E122" s="37">
+        <v>285</v>
+      </c>
+      <c r="F122" s="37">
+        <v>101</v>
+      </c>
+      <c r="G122" s="37">
+        <v>60</v>
+      </c>
+      <c r="H122" s="37">
+        <v>133</v>
+      </c>
+      <c r="I122" s="37">
+        <v>2</v>
+      </c>
+      <c r="J122" s="37">
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -35314,24 +35185,23 @@
       <c r="D123" s="30" t="s">
         <v>758</v>
       </c>
-      <c r="E123" s="30">
-        <v>60</v>
-      </c>
-      <c r="F123" s="30">
-        <v>31</v>
-      </c>
-      <c r="G123" s="30">
-        <v>14</v>
-      </c>
-      <c r="H123" s="30">
-        <v>61</v>
-      </c>
-      <c r="I123" s="30">
+      <c r="E123" s="37">
+        <v>183</v>
+      </c>
+      <c r="F123" s="37">
+        <v>48</v>
+      </c>
+      <c r="G123" s="37">
+        <v>42</v>
+      </c>
+      <c r="H123" s="37">
+        <v>172</v>
+      </c>
+      <c r="I123" s="37">
         <v>0</v>
       </c>
-      <c r="J123" s="30">
-        <f t="shared" si="1"/>
-        <v>166</v>
+      <c r="J123" s="37">
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -35347,24 +35217,23 @@
       <c r="D124" s="30" t="s">
         <v>759</v>
       </c>
-      <c r="E124" s="30">
-        <v>94</v>
-      </c>
-      <c r="F124" s="30">
-        <v>40</v>
-      </c>
-      <c r="G124" s="30">
-        <v>9</v>
-      </c>
-      <c r="H124" s="30">
-        <v>47</v>
-      </c>
-      <c r="I124" s="30">
+      <c r="E124" s="37">
+        <v>221</v>
+      </c>
+      <c r="F124" s="37">
+        <v>70</v>
+      </c>
+      <c r="G124" s="37">
+        <v>41</v>
+      </c>
+      <c r="H124" s="37">
+        <v>111</v>
+      </c>
+      <c r="I124" s="37">
         <v>2</v>
       </c>
-      <c r="J124" s="30">
-        <f t="shared" si="1"/>
-        <v>192</v>
+      <c r="J124" s="37">
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -35380,24 +35249,23 @@
       <c r="D125" s="30" t="s">
         <v>760</v>
       </c>
-      <c r="E125" s="30">
-        <v>358</v>
-      </c>
-      <c r="F125" s="30">
-        <v>203</v>
-      </c>
-      <c r="G125" s="30">
-        <v>77</v>
-      </c>
-      <c r="H125" s="30">
-        <v>587</v>
-      </c>
-      <c r="I125" s="30">
-        <v>2</v>
-      </c>
-      <c r="J125" s="30">
-        <f t="shared" si="1"/>
-        <v>1227</v>
+      <c r="E125" s="37">
+        <v>1041</v>
+      </c>
+      <c r="F125" s="37">
+        <v>480</v>
+      </c>
+      <c r="G125" s="37">
+        <v>215</v>
+      </c>
+      <c r="H125" s="37">
+        <v>1696</v>
+      </c>
+      <c r="I125" s="37">
+        <v>8</v>
+      </c>
+      <c r="J125" s="37">
+        <v>3440</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -35413,24 +35281,23 @@
       <c r="D126" s="30" t="s">
         <v>761</v>
       </c>
-      <c r="E126" s="30">
-        <v>27</v>
-      </c>
-      <c r="F126" s="30">
-        <v>21</v>
-      </c>
-      <c r="G126" s="30">
-        <v>24</v>
-      </c>
-      <c r="H126" s="30">
-        <v>10</v>
-      </c>
-      <c r="I126" s="30">
+      <c r="E126" s="37">
+        <v>87</v>
+      </c>
+      <c r="F126" s="37">
+        <v>53</v>
+      </c>
+      <c r="G126" s="37">
+        <v>50</v>
+      </c>
+      <c r="H126" s="37">
+        <v>30</v>
+      </c>
+      <c r="I126" s="37">
         <v>0</v>
       </c>
-      <c r="J126" s="30">
-        <f t="shared" si="1"/>
-        <v>82</v>
+      <c r="J126" s="37">
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -35446,24 +35313,23 @@
       <c r="D127" s="30" t="s">
         <v>762</v>
       </c>
-      <c r="E127" s="30">
-        <v>54</v>
-      </c>
-      <c r="F127" s="30">
-        <v>53</v>
-      </c>
-      <c r="G127" s="30">
-        <v>26</v>
-      </c>
-      <c r="H127" s="30">
-        <v>28</v>
-      </c>
-      <c r="I127" s="30">
+      <c r="E127" s="37">
+        <v>162</v>
+      </c>
+      <c r="F127" s="37">
+        <v>138</v>
+      </c>
+      <c r="G127" s="37">
+        <v>55</v>
+      </c>
+      <c r="H127" s="37">
+        <v>58</v>
+      </c>
+      <c r="I127" s="37">
         <v>0</v>
       </c>
-      <c r="J127" s="30">
-        <f t="shared" si="1"/>
-        <v>161</v>
+      <c r="J127" s="37">
+        <v>413</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -35479,24 +35345,23 @@
       <c r="D128" s="30" t="s">
         <v>763</v>
       </c>
-      <c r="E128" s="30">
-        <v>45</v>
-      </c>
-      <c r="F128" s="30">
-        <v>23</v>
-      </c>
-      <c r="G128" s="30">
-        <v>8</v>
-      </c>
-      <c r="H128" s="30">
-        <v>40</v>
-      </c>
-      <c r="I128" s="30">
-        <v>1</v>
-      </c>
-      <c r="J128" s="30">
-        <f t="shared" si="1"/>
-        <v>117</v>
+      <c r="E128" s="37">
+        <v>135</v>
+      </c>
+      <c r="F128" s="37">
+        <v>38</v>
+      </c>
+      <c r="G128" s="37">
+        <v>20</v>
+      </c>
+      <c r="H128" s="37">
+        <v>111</v>
+      </c>
+      <c r="I128" s="37">
+        <v>2</v>
+      </c>
+      <c r="J128" s="37">
+        <v>306</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -35512,24 +35377,23 @@
       <c r="D129" s="30" t="s">
         <v>764</v>
       </c>
-      <c r="E129" s="30">
-        <v>87</v>
-      </c>
-      <c r="F129" s="30">
-        <v>31</v>
-      </c>
-      <c r="G129" s="30">
-        <v>5</v>
-      </c>
-      <c r="H129" s="30">
-        <v>18</v>
-      </c>
-      <c r="I129" s="30">
+      <c r="E129" s="37">
+        <v>222</v>
+      </c>
+      <c r="F129" s="37">
+        <v>49</v>
+      </c>
+      <c r="G129" s="37">
+        <v>12</v>
+      </c>
+      <c r="H129" s="37">
+        <v>71</v>
+      </c>
+      <c r="I129" s="37">
         <v>0</v>
       </c>
-      <c r="J129" s="30">
-        <f t="shared" si="1"/>
-        <v>141</v>
+      <c r="J129" s="37">
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -35545,24 +35409,23 @@
       <c r="D130" s="30" t="s">
         <v>765</v>
       </c>
-      <c r="E130" s="30">
-        <v>217</v>
-      </c>
-      <c r="F130" s="30">
-        <v>169</v>
-      </c>
-      <c r="G130" s="30">
-        <v>40</v>
-      </c>
-      <c r="H130" s="30">
-        <v>99</v>
-      </c>
-      <c r="I130" s="30">
-        <v>0</v>
-      </c>
-      <c r="J130" s="30">
-        <f t="shared" si="1"/>
-        <v>525</v>
+      <c r="E130" s="37">
+        <v>617</v>
+      </c>
+      <c r="F130" s="37">
+        <v>289</v>
+      </c>
+      <c r="G130" s="37">
+        <v>125</v>
+      </c>
+      <c r="H130" s="37">
+        <v>272</v>
+      </c>
+      <c r="I130" s="37">
+        <v>2</v>
+      </c>
+      <c r="J130" s="37">
+        <v>1305</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -35578,24 +35441,23 @@
       <c r="D131" s="30" t="s">
         <v>766</v>
       </c>
-      <c r="E131" s="30">
-        <v>433</v>
-      </c>
-      <c r="F131" s="30">
-        <v>193</v>
-      </c>
-      <c r="G131" s="30">
-        <v>70</v>
-      </c>
-      <c r="H131" s="30">
-        <v>289</v>
-      </c>
-      <c r="I131" s="30">
-        <v>4</v>
-      </c>
-      <c r="J131" s="30">
-        <f t="shared" ref="J131:J194" si="2">SUM(E131:I131)</f>
-        <v>989</v>
+      <c r="E131" s="37">
+        <v>1228</v>
+      </c>
+      <c r="F131" s="37">
+        <v>401</v>
+      </c>
+      <c r="G131" s="37">
+        <v>165</v>
+      </c>
+      <c r="H131" s="37">
+        <v>885</v>
+      </c>
+      <c r="I131" s="37">
+        <v>9</v>
+      </c>
+      <c r="J131" s="37">
+        <v>2688</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -35611,24 +35473,23 @@
       <c r="D132" s="30" t="s">
         <v>767</v>
       </c>
-      <c r="E132" s="30">
-        <v>82</v>
-      </c>
-      <c r="F132" s="30">
-        <v>49</v>
-      </c>
-      <c r="G132" s="30">
-        <v>19</v>
-      </c>
-      <c r="H132" s="30">
-        <v>43</v>
-      </c>
-      <c r="I132" s="30">
-        <v>1</v>
-      </c>
-      <c r="J132" s="30">
-        <f t="shared" si="2"/>
-        <v>194</v>
+      <c r="E132" s="37">
+        <v>224</v>
+      </c>
+      <c r="F132" s="37">
+        <v>79</v>
+      </c>
+      <c r="G132" s="37">
+        <v>54</v>
+      </c>
+      <c r="H132" s="37">
+        <v>139</v>
+      </c>
+      <c r="I132" s="37">
+        <v>3</v>
+      </c>
+      <c r="J132" s="37">
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -35644,24 +35505,23 @@
       <c r="D133" s="30" t="s">
         <v>769</v>
       </c>
-      <c r="E133" s="30">
-        <v>92</v>
-      </c>
-      <c r="F133" s="30">
-        <v>48</v>
-      </c>
-      <c r="G133" s="30">
-        <v>12</v>
-      </c>
-      <c r="H133" s="30">
+      <c r="E133" s="37">
+        <v>239</v>
+      </c>
+      <c r="F133" s="37">
+        <v>79</v>
+      </c>
+      <c r="G133" s="37">
         <v>38</v>
       </c>
-      <c r="I133" s="30">
+      <c r="H133" s="37">
+        <v>119</v>
+      </c>
+      <c r="I133" s="37">
         <v>0</v>
       </c>
-      <c r="J133" s="30">
-        <f t="shared" si="2"/>
-        <v>190</v>
+      <c r="J133" s="37">
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -35677,24 +35537,23 @@
       <c r="D134" s="30" t="s">
         <v>768</v>
       </c>
-      <c r="E134" s="30">
-        <v>264</v>
-      </c>
-      <c r="F134" s="30">
-        <v>186</v>
-      </c>
-      <c r="G134" s="30">
-        <v>12</v>
-      </c>
-      <c r="H134" s="30">
-        <v>97</v>
-      </c>
-      <c r="I134" s="30">
-        <v>0</v>
-      </c>
-      <c r="J134" s="30">
-        <f t="shared" si="2"/>
-        <v>559</v>
+      <c r="E134" s="37">
+        <v>923</v>
+      </c>
+      <c r="F134" s="37">
+        <v>247</v>
+      </c>
+      <c r="G134" s="37">
+        <v>47</v>
+      </c>
+      <c r="H134" s="37">
+        <v>313</v>
+      </c>
+      <c r="I134" s="37">
+        <v>3</v>
+      </c>
+      <c r="J134" s="37">
+        <v>1533</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -35710,24 +35569,23 @@
       <c r="D135" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="E135" s="30">
-        <v>71</v>
-      </c>
-      <c r="F135" s="30">
-        <v>21</v>
-      </c>
-      <c r="G135" s="30">
-        <v>8</v>
-      </c>
-      <c r="H135" s="30">
-        <v>54</v>
-      </c>
-      <c r="I135" s="30">
-        <v>1</v>
-      </c>
-      <c r="J135" s="30">
-        <f t="shared" si="2"/>
-        <v>155</v>
+      <c r="E135" s="37">
+        <v>166</v>
+      </c>
+      <c r="F135" s="37">
+        <v>36</v>
+      </c>
+      <c r="G135" s="37">
+        <v>20</v>
+      </c>
+      <c r="H135" s="37">
+        <v>140</v>
+      </c>
+      <c r="I135" s="37">
+        <v>2</v>
+      </c>
+      <c r="J135" s="37">
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -35743,24 +35601,23 @@
       <c r="D136" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="E136" s="30">
-        <v>117</v>
-      </c>
-      <c r="F136" s="30">
-        <v>53</v>
-      </c>
-      <c r="G136" s="30">
-        <v>11</v>
-      </c>
-      <c r="H136" s="30">
-        <v>87</v>
-      </c>
-      <c r="I136" s="30">
+      <c r="E136" s="37">
+        <v>357</v>
+      </c>
+      <c r="F136" s="37">
+        <v>88</v>
+      </c>
+      <c r="G136" s="37">
+        <v>52</v>
+      </c>
+      <c r="H136" s="37">
+        <v>278</v>
+      </c>
+      <c r="I136" s="37">
         <v>0</v>
       </c>
-      <c r="J136" s="30">
-        <f t="shared" si="2"/>
-        <v>268</v>
+      <c r="J136" s="37">
+        <v>775</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -35776,24 +35633,23 @@
       <c r="D137" s="30" t="s">
         <v>773</v>
       </c>
-      <c r="E137" s="30">
-        <v>497</v>
-      </c>
-      <c r="F137" s="30">
-        <v>215</v>
-      </c>
-      <c r="G137" s="30">
-        <v>175</v>
-      </c>
-      <c r="H137" s="30">
-        <v>688</v>
-      </c>
-      <c r="I137" s="30">
-        <v>2</v>
-      </c>
-      <c r="J137" s="30">
-        <f t="shared" si="2"/>
-        <v>1577</v>
+      <c r="E137" s="37">
+        <v>1368</v>
+      </c>
+      <c r="F137" s="37">
+        <v>589</v>
+      </c>
+      <c r="G137" s="37">
+        <v>426</v>
+      </c>
+      <c r="H137" s="37">
+        <v>1988</v>
+      </c>
+      <c r="I137" s="37">
+        <v>3</v>
+      </c>
+      <c r="J137" s="37">
+        <v>4374</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -35809,24 +35665,23 @@
       <c r="D138" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="E138" s="30">
-        <v>115</v>
-      </c>
-      <c r="F138" s="30">
-        <v>110</v>
-      </c>
-      <c r="G138" s="30">
-        <v>38</v>
-      </c>
-      <c r="H138" s="30">
-        <v>42</v>
-      </c>
-      <c r="I138" s="30">
-        <v>1</v>
-      </c>
-      <c r="J138" s="30">
-        <f t="shared" si="2"/>
-        <v>306</v>
+      <c r="E138" s="37">
+        <v>327</v>
+      </c>
+      <c r="F138" s="37">
+        <v>263</v>
+      </c>
+      <c r="G138" s="37">
+        <v>106</v>
+      </c>
+      <c r="H138" s="37">
+        <v>128</v>
+      </c>
+      <c r="I138" s="37">
+        <v>2</v>
+      </c>
+      <c r="J138" s="37">
+        <v>826</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -35842,24 +35697,23 @@
       <c r="D139" s="30" t="s">
         <v>776</v>
       </c>
-      <c r="E139" s="30">
-        <v>47</v>
-      </c>
-      <c r="F139" s="30">
-        <v>49</v>
-      </c>
-      <c r="G139" s="30">
-        <v>21</v>
-      </c>
-      <c r="H139" s="30">
-        <v>27</v>
-      </c>
-      <c r="I139" s="30">
+      <c r="E139" s="37">
+        <v>121</v>
+      </c>
+      <c r="F139" s="37">
+        <v>90</v>
+      </c>
+      <c r="G139" s="37">
+        <v>44</v>
+      </c>
+      <c r="H139" s="37">
+        <v>88</v>
+      </c>
+      <c r="I139" s="37">
         <v>1</v>
       </c>
-      <c r="J139" s="30">
-        <f t="shared" si="2"/>
-        <v>145</v>
+      <c r="J139" s="37">
+        <v>344</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -35875,24 +35729,23 @@
       <c r="D140" s="30" t="s">
         <v>777</v>
       </c>
-      <c r="E140" s="30">
-        <v>93</v>
-      </c>
-      <c r="F140" s="30">
-        <v>38</v>
-      </c>
-      <c r="G140" s="30">
-        <v>9</v>
-      </c>
-      <c r="H140" s="30">
-        <v>23</v>
-      </c>
-      <c r="I140" s="30">
-        <v>2</v>
-      </c>
-      <c r="J140" s="30">
-        <f t="shared" si="2"/>
-        <v>165</v>
+      <c r="E140" s="37">
+        <v>273</v>
+      </c>
+      <c r="F140" s="37">
+        <v>63</v>
+      </c>
+      <c r="G140" s="37">
+        <v>24</v>
+      </c>
+      <c r="H140" s="37">
+        <v>73</v>
+      </c>
+      <c r="I140" s="37">
+        <v>5</v>
+      </c>
+      <c r="J140" s="37">
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -35908,24 +35761,23 @@
       <c r="D141" s="30" t="s">
         <v>778</v>
       </c>
-      <c r="E141" s="30">
-        <v>34</v>
-      </c>
-      <c r="F141" s="30">
-        <v>16</v>
-      </c>
-      <c r="G141" s="30">
-        <v>5</v>
-      </c>
-      <c r="H141" s="30">
-        <v>6</v>
-      </c>
-      <c r="I141" s="30">
+      <c r="E141" s="37">
+        <v>86</v>
+      </c>
+      <c r="F141" s="37">
+        <v>35</v>
+      </c>
+      <c r="G141" s="37">
+        <v>12</v>
+      </c>
+      <c r="H141" s="37">
+        <v>21</v>
+      </c>
+      <c r="I141" s="37">
         <v>0</v>
       </c>
-      <c r="J141" s="30">
-        <f t="shared" si="2"/>
-        <v>61</v>
+      <c r="J141" s="37">
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -35941,24 +35793,23 @@
       <c r="D142" s="30" t="s">
         <v>779</v>
       </c>
-      <c r="E142" s="30">
-        <v>91</v>
-      </c>
-      <c r="F142" s="30">
-        <v>46</v>
-      </c>
-      <c r="G142" s="30">
-        <v>23</v>
-      </c>
-      <c r="H142" s="30">
-        <v>179</v>
-      </c>
-      <c r="I142" s="30">
-        <v>0</v>
-      </c>
-      <c r="J142" s="30">
-        <f t="shared" si="2"/>
-        <v>339</v>
+      <c r="E142" s="37">
+        <v>253</v>
+      </c>
+      <c r="F142" s="37">
+        <v>79</v>
+      </c>
+      <c r="G142" s="37">
+        <v>73</v>
+      </c>
+      <c r="H142" s="37">
+        <v>561</v>
+      </c>
+      <c r="I142" s="37">
+        <v>3</v>
+      </c>
+      <c r="J142" s="37">
+        <v>969</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -35974,24 +35825,23 @@
       <c r="D143" s="30" t="s">
         <v>781</v>
       </c>
-      <c r="E143" s="30">
-        <v>13</v>
-      </c>
-      <c r="F143" s="30">
-        <v>14</v>
-      </c>
-      <c r="G143" s="30">
-        <v>12</v>
-      </c>
-      <c r="H143" s="30">
-        <v>7</v>
-      </c>
-      <c r="I143" s="30">
+      <c r="E143" s="37">
+        <v>40</v>
+      </c>
+      <c r="F143" s="37">
+        <v>28</v>
+      </c>
+      <c r="G143" s="37">
+        <v>26</v>
+      </c>
+      <c r="H143" s="37">
+        <v>32</v>
+      </c>
+      <c r="I143" s="37">
         <v>0</v>
       </c>
-      <c r="J143" s="30">
-        <f t="shared" si="2"/>
-        <v>46</v>
+      <c r="J143" s="37">
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -36007,24 +35857,23 @@
       <c r="D144" s="30" t="s">
         <v>782</v>
       </c>
-      <c r="E144" s="30">
+      <c r="E144" s="37">
+        <v>32</v>
+      </c>
+      <c r="F144" s="37">
+        <v>17</v>
+      </c>
+      <c r="G144" s="37">
         <v>12</v>
       </c>
-      <c r="F144" s="30">
-        <v>11</v>
-      </c>
-      <c r="G144" s="30">
-        <v>3</v>
-      </c>
-      <c r="H144" s="30">
-        <v>3</v>
-      </c>
-      <c r="I144" s="30">
-        <v>0</v>
-      </c>
-      <c r="J144" s="30">
-        <f t="shared" si="2"/>
-        <v>29</v>
+      <c r="H144" s="37">
+        <v>10</v>
+      </c>
+      <c r="I144" s="37">
+        <v>2</v>
+      </c>
+      <c r="J144" s="37">
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -36040,24 +35889,23 @@
       <c r="D145" s="30" t="s">
         <v>783</v>
       </c>
-      <c r="E145" s="30">
-        <v>540</v>
-      </c>
-      <c r="F145" s="30">
-        <v>228</v>
-      </c>
-      <c r="G145" s="30">
-        <v>74</v>
-      </c>
-      <c r="H145" s="30">
-        <v>312</v>
-      </c>
-      <c r="I145" s="30">
-        <v>1</v>
-      </c>
-      <c r="J145" s="30">
-        <f t="shared" si="2"/>
-        <v>1155</v>
+      <c r="E145" s="37">
+        <v>1428</v>
+      </c>
+      <c r="F145" s="37">
+        <v>427</v>
+      </c>
+      <c r="G145" s="37">
+        <v>159</v>
+      </c>
+      <c r="H145" s="37">
+        <v>1082</v>
+      </c>
+      <c r="I145" s="37">
+        <v>2</v>
+      </c>
+      <c r="J145" s="37">
+        <v>3098</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -36073,24 +35921,23 @@
       <c r="D146" s="30" t="s">
         <v>784</v>
       </c>
-      <c r="E146" s="30">
-        <v>107</v>
-      </c>
-      <c r="F146" s="30">
-        <v>62</v>
-      </c>
-      <c r="G146" s="30">
-        <v>10</v>
-      </c>
-      <c r="H146" s="30">
-        <v>54</v>
-      </c>
-      <c r="I146" s="30">
-        <v>0</v>
-      </c>
-      <c r="J146" s="30">
-        <f t="shared" si="2"/>
-        <v>233</v>
+      <c r="E146" s="37">
+        <v>304</v>
+      </c>
+      <c r="F146" s="37">
+        <v>109</v>
+      </c>
+      <c r="G146" s="37">
+        <v>31</v>
+      </c>
+      <c r="H146" s="37">
+        <v>166</v>
+      </c>
+      <c r="I146" s="37">
+        <v>1</v>
+      </c>
+      <c r="J146" s="37">
+        <v>611</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -36106,24 +35953,23 @@
       <c r="D147" s="30" t="s">
         <v>785</v>
       </c>
-      <c r="E147" s="30">
-        <v>121</v>
-      </c>
-      <c r="F147" s="30">
-        <v>62</v>
-      </c>
-      <c r="G147" s="30">
-        <v>11</v>
-      </c>
-      <c r="H147" s="30">
-        <v>56</v>
-      </c>
-      <c r="I147" s="30">
+      <c r="E147" s="37">
+        <v>288</v>
+      </c>
+      <c r="F147" s="37">
+        <v>118</v>
+      </c>
+      <c r="G147" s="37">
+        <v>46</v>
+      </c>
+      <c r="H147" s="37">
+        <v>127</v>
+      </c>
+      <c r="I147" s="37">
         <v>0</v>
       </c>
-      <c r="J147" s="30">
-        <f t="shared" si="2"/>
-        <v>250</v>
+      <c r="J147" s="37">
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -36139,24 +35985,23 @@
       <c r="D148" s="30" t="s">
         <v>852</v>
       </c>
-      <c r="E148" s="30">
-        <v>43</v>
-      </c>
-      <c r="F148" s="30">
-        <v>28</v>
-      </c>
-      <c r="G148" s="30">
-        <v>5</v>
-      </c>
-      <c r="H148" s="30">
-        <v>26</v>
-      </c>
-      <c r="I148" s="30">
+      <c r="E148" s="37">
+        <v>145</v>
+      </c>
+      <c r="F148" s="37">
+        <v>50</v>
+      </c>
+      <c r="G148" s="37">
+        <v>14</v>
+      </c>
+      <c r="H148" s="37">
+        <v>67</v>
+      </c>
+      <c r="I148" s="37">
         <v>0</v>
       </c>
-      <c r="J148" s="30">
-        <f t="shared" si="2"/>
-        <v>102</v>
+      <c r="J148" s="37">
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -36172,24 +36017,23 @@
       <c r="D149" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="E149" s="30">
-        <v>181</v>
-      </c>
-      <c r="F149" s="30">
-        <v>81</v>
-      </c>
-      <c r="G149" s="30">
-        <v>19</v>
-      </c>
-      <c r="H149" s="30">
-        <v>101</v>
-      </c>
-      <c r="I149" s="30">
+      <c r="E149" s="37">
+        <v>510</v>
+      </c>
+      <c r="F149" s="37">
+        <v>156</v>
+      </c>
+      <c r="G149" s="37">
+        <v>44</v>
+      </c>
+      <c r="H149" s="37">
+        <v>322</v>
+      </c>
+      <c r="I149" s="37">
         <v>1</v>
       </c>
-      <c r="J149" s="30">
-        <f t="shared" si="2"/>
-        <v>383</v>
+      <c r="J149" s="37">
+        <v>1033</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -36205,24 +36049,23 @@
       <c r="D150" s="30" t="s">
         <v>786</v>
       </c>
-      <c r="E150" s="30">
-        <v>105</v>
-      </c>
-      <c r="F150" s="30">
-        <v>62</v>
-      </c>
-      <c r="G150" s="30">
-        <v>15</v>
-      </c>
-      <c r="H150" s="30">
-        <v>65</v>
-      </c>
-      <c r="I150" s="30">
+      <c r="E150" s="37">
+        <v>259</v>
+      </c>
+      <c r="F150" s="37">
+        <v>122</v>
+      </c>
+      <c r="G150" s="37">
+        <v>52</v>
+      </c>
+      <c r="H150" s="37">
+        <v>163</v>
+      </c>
+      <c r="I150" s="37">
         <v>0</v>
       </c>
-      <c r="J150" s="30">
-        <f t="shared" si="2"/>
-        <v>247</v>
+      <c r="J150" s="37">
+        <v>596</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -36238,24 +36081,23 @@
       <c r="D151" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="E151" s="30">
-        <v>24</v>
-      </c>
-      <c r="F151" s="30">
-        <v>4</v>
-      </c>
-      <c r="G151" s="30">
-        <v>2</v>
-      </c>
-      <c r="H151" s="30">
-        <v>1</v>
-      </c>
-      <c r="I151" s="30">
+      <c r="E151" s="37">
+        <v>62</v>
+      </c>
+      <c r="F151" s="37">
+        <v>8</v>
+      </c>
+      <c r="G151" s="37">
+        <v>3</v>
+      </c>
+      <c r="H151" s="37">
+        <v>11</v>
+      </c>
+      <c r="I151" s="37">
         <v>0</v>
       </c>
-      <c r="J151" s="30">
-        <f t="shared" si="2"/>
-        <v>31</v>
+      <c r="J151" s="37">
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -36271,24 +36113,23 @@
       <c r="D152" s="30" t="s">
         <v>788</v>
       </c>
-      <c r="E152" s="30">
-        <v>18</v>
-      </c>
-      <c r="F152" s="30">
-        <v>14</v>
-      </c>
-      <c r="G152" s="30">
-        <v>5</v>
-      </c>
-      <c r="H152" s="30">
-        <v>21</v>
-      </c>
-      <c r="I152" s="30">
+      <c r="E152" s="37">
+        <v>93</v>
+      </c>
+      <c r="F152" s="37">
+        <v>40</v>
+      </c>
+      <c r="G152" s="37">
+        <v>16</v>
+      </c>
+      <c r="H152" s="37">
+        <v>59</v>
+      </c>
+      <c r="I152" s="37">
         <v>0</v>
       </c>
-      <c r="J152" s="30">
-        <f t="shared" si="2"/>
-        <v>58</v>
+      <c r="J152" s="37">
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -36304,24 +36145,23 @@
       <c r="D153" s="30" t="s">
         <v>647</v>
       </c>
-      <c r="E153" s="30">
-        <v>85</v>
-      </c>
-      <c r="F153" s="30">
-        <v>32</v>
-      </c>
-      <c r="G153" s="30">
-        <v>1</v>
-      </c>
-      <c r="H153" s="30">
-        <v>25</v>
-      </c>
-      <c r="I153" s="30">
+      <c r="E153" s="37">
+        <v>273</v>
+      </c>
+      <c r="F153" s="37">
+        <v>49</v>
+      </c>
+      <c r="G153" s="37">
+        <v>2</v>
+      </c>
+      <c r="H153" s="37">
+        <v>73</v>
+      </c>
+      <c r="I153" s="37">
         <v>0</v>
       </c>
-      <c r="J153" s="30">
-        <f t="shared" si="2"/>
-        <v>143</v>
+      <c r="J153" s="37">
+        <v>397</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -36337,24 +36177,23 @@
       <c r="D154" s="30" t="s">
         <v>789</v>
       </c>
-      <c r="E154" s="30">
-        <v>66</v>
-      </c>
-      <c r="F154" s="30">
-        <v>90</v>
-      </c>
-      <c r="G154" s="30">
-        <v>31</v>
-      </c>
-      <c r="H154" s="30">
-        <v>53</v>
-      </c>
-      <c r="I154" s="30">
-        <v>0</v>
-      </c>
-      <c r="J154" s="30">
-        <f t="shared" si="2"/>
-        <v>240</v>
+      <c r="E154" s="37">
+        <v>252</v>
+      </c>
+      <c r="F154" s="37">
+        <v>162</v>
+      </c>
+      <c r="G154" s="37">
+        <v>55</v>
+      </c>
+      <c r="H154" s="37">
+        <v>171</v>
+      </c>
+      <c r="I154" s="37">
+        <v>1</v>
+      </c>
+      <c r="J154" s="37">
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -36370,24 +36209,23 @@
       <c r="D155" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="E155" s="30">
-        <v>179</v>
-      </c>
-      <c r="F155" s="30">
-        <v>81</v>
-      </c>
-      <c r="G155" s="30">
-        <v>7</v>
-      </c>
-      <c r="H155" s="30">
-        <v>52</v>
-      </c>
-      <c r="I155" s="30">
+      <c r="E155" s="37">
+        <v>492</v>
+      </c>
+      <c r="F155" s="37">
+        <v>133</v>
+      </c>
+      <c r="G155" s="37">
+        <v>24</v>
+      </c>
+      <c r="H155" s="37">
+        <v>133</v>
+      </c>
+      <c r="I155" s="37">
         <v>0</v>
       </c>
-      <c r="J155" s="30">
-        <f t="shared" si="2"/>
-        <v>319</v>
+      <c r="J155" s="37">
+        <v>782</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -36403,24 +36241,23 @@
       <c r="D156" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="E156" s="30">
-        <v>34</v>
-      </c>
-      <c r="F156" s="30">
-        <v>20</v>
-      </c>
-      <c r="G156" s="30">
-        <v>10</v>
-      </c>
-      <c r="H156" s="30">
-        <v>16</v>
-      </c>
-      <c r="I156" s="30">
-        <v>1</v>
-      </c>
-      <c r="J156" s="30">
-        <f t="shared" si="2"/>
-        <v>81</v>
+      <c r="E156" s="37">
+        <v>85</v>
+      </c>
+      <c r="F156" s="37">
+        <v>42</v>
+      </c>
+      <c r="G156" s="37">
+        <v>28</v>
+      </c>
+      <c r="H156" s="37">
+        <v>42</v>
+      </c>
+      <c r="I156" s="37">
+        <v>2</v>
+      </c>
+      <c r="J156" s="37">
+        <v>199</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -36436,24 +36273,23 @@
       <c r="D157" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="E157" s="30">
-        <v>46</v>
-      </c>
-      <c r="F157" s="30">
-        <v>23</v>
-      </c>
-      <c r="G157" s="30">
-        <v>7</v>
-      </c>
-      <c r="H157" s="30">
-        <v>49</v>
-      </c>
-      <c r="I157" s="30">
+      <c r="E157" s="37">
+        <v>127</v>
+      </c>
+      <c r="F157" s="37">
+        <v>48</v>
+      </c>
+      <c r="G157" s="37">
+        <v>30</v>
+      </c>
+      <c r="H157" s="37">
+        <v>123</v>
+      </c>
+      <c r="I157" s="37">
         <v>1</v>
       </c>
-      <c r="J157" s="30">
-        <f t="shared" si="2"/>
-        <v>126</v>
+      <c r="J157" s="37">
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -36469,24 +36305,23 @@
       <c r="D158" s="30" t="s">
         <v>793</v>
       </c>
-      <c r="E158" s="30">
-        <v>31</v>
-      </c>
-      <c r="F158" s="30">
-        <v>28</v>
-      </c>
-      <c r="G158" s="30">
-        <v>14</v>
-      </c>
-      <c r="H158" s="30">
-        <v>19</v>
-      </c>
-      <c r="I158" s="30">
-        <v>0</v>
-      </c>
-      <c r="J158" s="30">
-        <f t="shared" si="2"/>
-        <v>92</v>
+      <c r="E158" s="37">
+        <v>91</v>
+      </c>
+      <c r="F158" s="37">
+        <v>77</v>
+      </c>
+      <c r="G158" s="37">
+        <v>25</v>
+      </c>
+      <c r="H158" s="37">
+        <v>53</v>
+      </c>
+      <c r="I158" s="37">
+        <v>1</v>
+      </c>
+      <c r="J158" s="37">
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -36502,24 +36337,23 @@
       <c r="D159" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="E159" s="30">
+      <c r="E159" s="37">
+        <v>37</v>
+      </c>
+      <c r="F159" s="37">
+        <v>26</v>
+      </c>
+      <c r="G159" s="37">
         <v>14</v>
       </c>
-      <c r="F159" s="30">
-        <v>14</v>
-      </c>
-      <c r="G159" s="30">
-        <v>2</v>
-      </c>
-      <c r="H159" s="30">
-        <v>13</v>
-      </c>
-      <c r="I159" s="30">
-        <v>0</v>
-      </c>
-      <c r="J159" s="30">
-        <f t="shared" si="2"/>
-        <v>43</v>
+      <c r="H159" s="37">
+        <v>39</v>
+      </c>
+      <c r="I159" s="37">
+        <v>1</v>
+      </c>
+      <c r="J159" s="37">
+        <v>117</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -36535,24 +36369,23 @@
       <c r="D160" s="30" t="s">
         <v>795</v>
       </c>
-      <c r="E160" s="30">
-        <v>23</v>
-      </c>
-      <c r="F160" s="30">
+      <c r="E160" s="37">
+        <v>66</v>
+      </c>
+      <c r="F160" s="37">
+        <v>21</v>
+      </c>
+      <c r="G160" s="37">
         <v>12</v>
       </c>
-      <c r="G160" s="30">
-        <v>5</v>
-      </c>
-      <c r="H160" s="30">
-        <v>24</v>
-      </c>
-      <c r="I160" s="30">
+      <c r="H160" s="37">
+        <v>67</v>
+      </c>
+      <c r="I160" s="37">
         <v>0</v>
       </c>
-      <c r="J160" s="30">
-        <f t="shared" si="2"/>
-        <v>64</v>
+      <c r="J160" s="37">
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -36568,24 +36401,23 @@
       <c r="D161" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="E161" s="30">
-        <v>399</v>
-      </c>
-      <c r="F161" s="30">
-        <v>227</v>
-      </c>
-      <c r="G161" s="30">
-        <v>22</v>
-      </c>
-      <c r="H161" s="30">
-        <v>214</v>
-      </c>
-      <c r="I161" s="30">
-        <v>2</v>
-      </c>
-      <c r="J161" s="30">
-        <f t="shared" si="2"/>
-        <v>864</v>
+      <c r="E161" s="37">
+        <v>997</v>
+      </c>
+      <c r="F161" s="37">
+        <v>344</v>
+      </c>
+      <c r="G161" s="37">
+        <v>70</v>
+      </c>
+      <c r="H161" s="37">
+        <v>596</v>
+      </c>
+      <c r="I161" s="37">
+        <v>3</v>
+      </c>
+      <c r="J161" s="37">
+        <v>2010</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -36601,24 +36433,23 @@
       <c r="D162" s="30" t="s">
         <v>797</v>
       </c>
-      <c r="E162" s="30">
-        <v>53</v>
-      </c>
-      <c r="F162" s="30">
-        <v>58</v>
-      </c>
-      <c r="G162" s="30">
-        <v>5</v>
-      </c>
-      <c r="H162" s="30">
-        <v>29</v>
-      </c>
-      <c r="I162" s="30">
+      <c r="E162" s="37">
+        <v>186</v>
+      </c>
+      <c r="F162" s="37">
+        <v>94</v>
+      </c>
+      <c r="G162" s="37">
+        <v>16</v>
+      </c>
+      <c r="H162" s="37">
+        <v>66</v>
+      </c>
+      <c r="I162" s="37">
         <v>0</v>
       </c>
-      <c r="J162" s="30">
-        <f t="shared" si="2"/>
-        <v>145</v>
+      <c r="J162" s="37">
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -36634,24 +36465,23 @@
       <c r="D163" s="30" t="s">
         <v>851</v>
       </c>
-      <c r="E163" s="30">
-        <v>38</v>
-      </c>
-      <c r="F163" s="30">
-        <v>10</v>
-      </c>
-      <c r="G163" s="30">
-        <v>0</v>
-      </c>
-      <c r="H163" s="30">
-        <v>4</v>
-      </c>
-      <c r="I163" s="30">
-        <v>0</v>
-      </c>
-      <c r="J163" s="30">
-        <f t="shared" si="2"/>
-        <v>52</v>
+      <c r="E163" s="37">
+        <v>88</v>
+      </c>
+      <c r="F163" s="37">
+        <v>13</v>
+      </c>
+      <c r="G163" s="37">
+        <v>1</v>
+      </c>
+      <c r="H163" s="37">
+        <v>13</v>
+      </c>
+      <c r="I163" s="37">
+        <v>2</v>
+      </c>
+      <c r="J163" s="37">
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -36667,24 +36497,23 @@
       <c r="D164" s="30">
         <v>2826880060</v>
       </c>
-      <c r="E164" s="30">
-        <v>58</v>
-      </c>
-      <c r="F164" s="30">
-        <v>15</v>
-      </c>
-      <c r="G164" s="30">
-        <v>10</v>
-      </c>
-      <c r="H164" s="30">
-        <v>35</v>
-      </c>
-      <c r="I164" s="30">
-        <v>0</v>
-      </c>
-      <c r="J164" s="30">
-        <f t="shared" si="2"/>
-        <v>118</v>
+      <c r="E164" s="37">
+        <v>170</v>
+      </c>
+      <c r="F164" s="37">
+        <v>54</v>
+      </c>
+      <c r="G164" s="37">
+        <v>23</v>
+      </c>
+      <c r="H164" s="37">
+        <v>116</v>
+      </c>
+      <c r="I164" s="37">
+        <v>1</v>
+      </c>
+      <c r="J164" s="37">
+        <v>364</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -36700,24 +36529,23 @@
       <c r="D165" s="30" t="s">
         <v>799</v>
       </c>
-      <c r="E165" s="30">
-        <v>193</v>
-      </c>
-      <c r="F165" s="30">
-        <v>24</v>
-      </c>
-      <c r="G165" s="30">
+      <c r="E165" s="37">
+        <v>647</v>
+      </c>
+      <c r="F165" s="37">
+        <v>62</v>
+      </c>
+      <c r="G165" s="37">
         <v>0</v>
       </c>
-      <c r="H165" s="30">
-        <v>43</v>
-      </c>
-      <c r="I165" s="30">
+      <c r="H165" s="37">
+        <v>93</v>
+      </c>
+      <c r="I165" s="37">
         <v>0</v>
       </c>
-      <c r="J165" s="30">
-        <f t="shared" si="2"/>
-        <v>260</v>
+      <c r="J165" s="37">
+        <v>802</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -36733,24 +36561,23 @@
       <c r="D166" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="E166" s="30">
-        <v>315</v>
-      </c>
-      <c r="F166" s="30">
-        <v>118</v>
-      </c>
-      <c r="G166" s="30">
-        <v>28</v>
-      </c>
-      <c r="H166" s="30">
-        <v>191</v>
-      </c>
-      <c r="I166" s="30">
-        <v>0</v>
-      </c>
-      <c r="J166" s="30">
-        <f t="shared" si="2"/>
-        <v>652</v>
+      <c r="E166" s="37">
+        <v>912</v>
+      </c>
+      <c r="F166" s="37">
+        <v>217</v>
+      </c>
+      <c r="G166" s="37">
+        <v>90</v>
+      </c>
+      <c r="H166" s="37">
+        <v>546</v>
+      </c>
+      <c r="I166" s="37">
+        <v>4</v>
+      </c>
+      <c r="J166" s="37">
+        <v>1769</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -36766,24 +36593,23 @@
       <c r="D167" s="30" t="s">
         <v>802</v>
       </c>
-      <c r="E167" s="30">
-        <v>134</v>
-      </c>
-      <c r="F167" s="30">
-        <v>42</v>
-      </c>
-      <c r="G167" s="30">
-        <v>16</v>
-      </c>
-      <c r="H167" s="30">
-        <v>71</v>
-      </c>
-      <c r="I167" s="30">
+      <c r="E167" s="37">
+        <v>305</v>
+      </c>
+      <c r="F167" s="37">
+        <v>73</v>
+      </c>
+      <c r="G167" s="37">
+        <v>39</v>
+      </c>
+      <c r="H167" s="37">
+        <v>192</v>
+      </c>
+      <c r="I167" s="37">
         <v>0</v>
       </c>
-      <c r="J167" s="30">
-        <f t="shared" si="2"/>
-        <v>263</v>
+      <c r="J167" s="37">
+        <v>609</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -36799,24 +36625,23 @@
       <c r="D168" s="30" t="s">
         <v>803</v>
       </c>
-      <c r="E168" s="30">
-        <v>28</v>
-      </c>
-      <c r="F168" s="30">
-        <v>16</v>
-      </c>
-      <c r="G168" s="30">
+      <c r="E168" s="37">
+        <v>60</v>
+      </c>
+      <c r="F168" s="37">
+        <v>24</v>
+      </c>
+      <c r="G168" s="37">
+        <v>4</v>
+      </c>
+      <c r="H168" s="37">
+        <v>20</v>
+      </c>
+      <c r="I168" s="37">
         <v>0</v>
       </c>
-      <c r="H168" s="30">
-        <v>8</v>
-      </c>
-      <c r="I168" s="30">
-        <v>0</v>
-      </c>
-      <c r="J168" s="30">
-        <f t="shared" si="2"/>
-        <v>52</v>
+      <c r="J168" s="37">
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -36832,24 +36657,23 @@
       <c r="D169" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="E169" s="30">
-        <v>19</v>
-      </c>
-      <c r="F169" s="30">
-        <v>8</v>
-      </c>
-      <c r="G169" s="30">
-        <v>3</v>
-      </c>
-      <c r="H169" s="30">
-        <v>7</v>
-      </c>
-      <c r="I169" s="30">
+      <c r="E169" s="37">
+        <v>66</v>
+      </c>
+      <c r="F169" s="37">
+        <v>14</v>
+      </c>
+      <c r="G169" s="37">
+        <v>6</v>
+      </c>
+      <c r="H169" s="37">
+        <v>20</v>
+      </c>
+      <c r="I169" s="37">
         <v>0</v>
       </c>
-      <c r="J169" s="30">
-        <f t="shared" si="2"/>
-        <v>37</v>
+      <c r="J169" s="37">
+        <v>106</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -36865,24 +36689,23 @@
       <c r="D170" s="30" t="s">
         <v>805</v>
       </c>
-      <c r="E170" s="30">
-        <v>50</v>
-      </c>
-      <c r="F170" s="30">
-        <v>24</v>
-      </c>
-      <c r="G170" s="30">
-        <v>6</v>
-      </c>
-      <c r="H170" s="30">
-        <v>33</v>
-      </c>
-      <c r="I170" s="30">
+      <c r="E170" s="37">
+        <v>132</v>
+      </c>
+      <c r="F170" s="37">
+        <v>47</v>
+      </c>
+      <c r="G170" s="37">
+        <v>11</v>
+      </c>
+      <c r="H170" s="37">
+        <v>87</v>
+      </c>
+      <c r="I170" s="37">
         <v>0</v>
       </c>
-      <c r="J170" s="30">
-        <f t="shared" si="2"/>
-        <v>113</v>
+      <c r="J170" s="37">
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -36898,24 +36721,23 @@
       <c r="D171" s="30" t="s">
         <v>806</v>
       </c>
-      <c r="E171" s="30">
-        <v>53</v>
-      </c>
-      <c r="F171" s="30">
-        <v>18</v>
-      </c>
-      <c r="G171" s="30">
-        <v>1</v>
-      </c>
-      <c r="H171" s="30">
-        <v>13</v>
-      </c>
-      <c r="I171" s="30">
+      <c r="E171" s="37">
+        <v>138</v>
+      </c>
+      <c r="F171" s="37">
+        <v>25</v>
+      </c>
+      <c r="G171" s="37">
+        <v>2</v>
+      </c>
+      <c r="H171" s="37">
+        <v>36</v>
+      </c>
+      <c r="I171" s="37">
         <v>0</v>
       </c>
-      <c r="J171" s="30">
-        <f t="shared" si="2"/>
-        <v>85</v>
+      <c r="J171" s="37">
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -36931,24 +36753,23 @@
       <c r="D172" s="30" t="s">
         <v>807</v>
       </c>
-      <c r="E172" s="30">
-        <v>22</v>
-      </c>
-      <c r="F172" s="30">
-        <v>9</v>
-      </c>
-      <c r="G172" s="30">
-        <v>1</v>
-      </c>
-      <c r="H172" s="30">
-        <v>16</v>
-      </c>
-      <c r="I172" s="30">
-        <v>3</v>
-      </c>
-      <c r="J172" s="30">
-        <f t="shared" si="2"/>
-        <v>51</v>
+      <c r="E172" s="37">
+        <v>57</v>
+      </c>
+      <c r="F172" s="37">
+        <v>15</v>
+      </c>
+      <c r="G172" s="37">
+        <v>8</v>
+      </c>
+      <c r="H172" s="37">
+        <v>44</v>
+      </c>
+      <c r="I172" s="37">
+        <v>5</v>
+      </c>
+      <c r="J172" s="37">
+        <v>129</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -36964,24 +36785,23 @@
       <c r="D173" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="E173" s="30">
-        <v>85</v>
-      </c>
-      <c r="F173" s="30">
-        <v>26</v>
-      </c>
-      <c r="G173" s="30">
-        <v>2</v>
-      </c>
-      <c r="H173" s="30">
-        <v>30</v>
-      </c>
-      <c r="I173" s="30">
-        <v>0</v>
-      </c>
-      <c r="J173" s="30">
-        <f t="shared" si="2"/>
-        <v>143</v>
+      <c r="E173" s="37">
+        <v>169</v>
+      </c>
+      <c r="F173" s="37">
+        <v>58</v>
+      </c>
+      <c r="G173" s="37">
+        <v>12</v>
+      </c>
+      <c r="H173" s="37">
+        <v>78</v>
+      </c>
+      <c r="I173" s="37">
+        <v>1</v>
+      </c>
+      <c r="J173" s="37">
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -36997,24 +36817,23 @@
       <c r="D174" s="30" t="s">
         <v>809</v>
       </c>
-      <c r="E174" s="30">
-        <v>86</v>
-      </c>
-      <c r="F174" s="30">
-        <v>38</v>
-      </c>
-      <c r="G174" s="30">
-        <v>3</v>
-      </c>
-      <c r="H174" s="30">
-        <v>24</v>
-      </c>
-      <c r="I174" s="30">
+      <c r="E174" s="37">
+        <v>265</v>
+      </c>
+      <c r="F174" s="37">
+        <v>60</v>
+      </c>
+      <c r="G174" s="37">
+        <v>8</v>
+      </c>
+      <c r="H174" s="37">
+        <v>49</v>
+      </c>
+      <c r="I174" s="37">
         <v>0</v>
       </c>
-      <c r="J174" s="30">
-        <f t="shared" si="2"/>
-        <v>151</v>
+      <c r="J174" s="37">
+        <v>382</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -37030,24 +36849,23 @@
       <c r="D175" s="30" t="s">
         <v>811</v>
       </c>
-      <c r="E175" s="30">
-        <v>52</v>
-      </c>
-      <c r="F175" s="30">
-        <v>11</v>
-      </c>
-      <c r="G175" s="30">
+      <c r="E175" s="37">
+        <v>153</v>
+      </c>
+      <c r="F175" s="37">
+        <v>13</v>
+      </c>
+      <c r="G175" s="37">
+        <v>1</v>
+      </c>
+      <c r="H175" s="37">
+        <v>34</v>
+      </c>
+      <c r="I175" s="37">
         <v>0</v>
       </c>
-      <c r="H175" s="30">
-        <v>15</v>
-      </c>
-      <c r="I175" s="30">
-        <v>0</v>
-      </c>
-      <c r="J175" s="30">
-        <f t="shared" si="2"/>
-        <v>78</v>
+      <c r="J175" s="37">
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -37063,24 +36881,23 @@
       <c r="D176" s="30" t="s">
         <v>812</v>
       </c>
-      <c r="E176" s="30">
-        <v>19</v>
-      </c>
-      <c r="F176" s="30">
-        <v>5</v>
-      </c>
-      <c r="G176" s="30">
+      <c r="E176" s="37">
+        <v>70</v>
+      </c>
+      <c r="F176" s="37">
+        <v>13</v>
+      </c>
+      <c r="G176" s="37">
         <v>0</v>
       </c>
-      <c r="H176" s="30">
-        <v>7</v>
-      </c>
-      <c r="I176" s="30">
+      <c r="H176" s="37">
+        <v>14</v>
+      </c>
+      <c r="I176" s="37">
         <v>0</v>
       </c>
-      <c r="J176" s="30">
-        <f t="shared" si="2"/>
-        <v>31</v>
+      <c r="J176" s="37">
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -37096,24 +36913,23 @@
       <c r="D177" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="E177" s="30">
-        <v>49</v>
-      </c>
-      <c r="F177" s="30">
-        <v>44</v>
-      </c>
-      <c r="G177" s="30">
-        <v>13</v>
-      </c>
-      <c r="H177" s="30">
-        <v>29</v>
-      </c>
-      <c r="I177" s="30">
+      <c r="E177" s="37">
+        <v>144</v>
+      </c>
+      <c r="F177" s="37">
+        <v>74</v>
+      </c>
+      <c r="G177" s="37">
+        <v>31</v>
+      </c>
+      <c r="H177" s="37">
+        <v>95</v>
+      </c>
+      <c r="I177" s="37">
         <v>0</v>
       </c>
-      <c r="J177" s="30">
-        <f t="shared" si="2"/>
-        <v>135</v>
+      <c r="J177" s="37">
+        <v>344</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -37129,24 +36945,23 @@
       <c r="D178" s="30" t="s">
         <v>814</v>
       </c>
-      <c r="E178" s="30">
-        <v>162</v>
-      </c>
-      <c r="F178" s="30">
-        <v>57</v>
-      </c>
-      <c r="G178" s="30">
-        <v>16</v>
-      </c>
-      <c r="H178" s="30">
-        <v>79</v>
-      </c>
-      <c r="I178" s="30">
-        <v>0</v>
-      </c>
-      <c r="J178" s="30">
-        <f t="shared" si="2"/>
-        <v>314</v>
+      <c r="E178" s="37">
+        <v>457</v>
+      </c>
+      <c r="F178" s="37">
+        <v>109</v>
+      </c>
+      <c r="G178" s="37">
+        <v>44</v>
+      </c>
+      <c r="H178" s="37">
+        <v>253</v>
+      </c>
+      <c r="I178" s="37">
+        <v>4</v>
+      </c>
+      <c r="J178" s="37">
+        <v>867</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -37162,24 +36977,23 @@
       <c r="D179" s="30" t="s">
         <v>815</v>
       </c>
-      <c r="E179" s="30">
-        <v>297</v>
-      </c>
-      <c r="F179" s="30">
-        <v>187</v>
-      </c>
-      <c r="G179" s="30">
-        <v>35</v>
-      </c>
-      <c r="H179" s="30">
-        <v>197</v>
-      </c>
-      <c r="I179" s="30">
-        <v>1</v>
-      </c>
-      <c r="J179" s="30">
-        <f t="shared" si="2"/>
-        <v>717</v>
+      <c r="E179" s="37">
+        <v>882</v>
+      </c>
+      <c r="F179" s="37">
+        <v>330</v>
+      </c>
+      <c r="G179" s="37">
+        <v>119</v>
+      </c>
+      <c r="H179" s="37">
+        <v>658</v>
+      </c>
+      <c r="I179" s="37">
+        <v>2</v>
+      </c>
+      <c r="J179" s="37">
+        <v>1991</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -37195,24 +37009,23 @@
       <c r="D180" s="30" t="s">
         <v>816</v>
       </c>
-      <c r="E180" s="30">
-        <v>235</v>
-      </c>
-      <c r="F180" s="30">
-        <v>106</v>
-      </c>
-      <c r="G180" s="30">
-        <v>18</v>
-      </c>
-      <c r="H180" s="30">
-        <v>110</v>
-      </c>
-      <c r="I180" s="30">
-        <v>0</v>
-      </c>
-      <c r="J180" s="30">
-        <f t="shared" si="2"/>
-        <v>469</v>
+      <c r="E180" s="37">
+        <v>684</v>
+      </c>
+      <c r="F180" s="37">
+        <v>195</v>
+      </c>
+      <c r="G180" s="37">
+        <v>66</v>
+      </c>
+      <c r="H180" s="37">
+        <v>401</v>
+      </c>
+      <c r="I180" s="37">
+        <v>4</v>
+      </c>
+      <c r="J180" s="37">
+        <v>1350</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -37228,24 +37041,23 @@
       <c r="D181" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="E181" s="30">
-        <v>31</v>
-      </c>
-      <c r="F181" s="30">
-        <v>17</v>
-      </c>
-      <c r="G181" s="30">
-        <v>2</v>
-      </c>
-      <c r="H181" s="30">
-        <v>21</v>
-      </c>
-      <c r="I181" s="30">
-        <v>0</v>
-      </c>
-      <c r="J181" s="30">
-        <f t="shared" si="2"/>
-        <v>71</v>
+      <c r="E181" s="37">
+        <v>101</v>
+      </c>
+      <c r="F181" s="37">
+        <v>22</v>
+      </c>
+      <c r="G181" s="37">
+        <v>3</v>
+      </c>
+      <c r="H181" s="37">
+        <v>54</v>
+      </c>
+      <c r="I181" s="37">
+        <v>1</v>
+      </c>
+      <c r="J181" s="37">
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -37261,24 +37073,23 @@
       <c r="D182" s="30" t="s">
         <v>817</v>
       </c>
-      <c r="E182" s="30">
-        <v>20</v>
-      </c>
-      <c r="F182" s="30">
+      <c r="E182" s="37">
+        <v>69</v>
+      </c>
+      <c r="F182" s="37">
+        <v>32</v>
+      </c>
+      <c r="G182" s="37">
         <v>18</v>
       </c>
-      <c r="G182" s="30">
-        <v>3</v>
-      </c>
-      <c r="H182" s="30">
-        <v>6</v>
-      </c>
-      <c r="I182" s="30">
+      <c r="H182" s="37">
+        <v>17</v>
+      </c>
+      <c r="I182" s="37">
         <v>0</v>
       </c>
-      <c r="J182" s="30">
-        <f t="shared" si="2"/>
-        <v>47</v>
+      <c r="J182" s="37">
+        <v>136</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -37294,24 +37105,23 @@
       <c r="D183" s="30" t="s">
         <v>818</v>
       </c>
-      <c r="E183" s="30">
-        <v>72</v>
-      </c>
-      <c r="F183" s="30">
-        <v>19</v>
-      </c>
-      <c r="G183" s="30">
-        <v>3</v>
-      </c>
-      <c r="H183" s="30">
-        <v>12</v>
-      </c>
-      <c r="I183" s="30">
+      <c r="E183" s="37">
+        <v>193</v>
+      </c>
+      <c r="F183" s="37">
+        <v>28</v>
+      </c>
+      <c r="G183" s="37">
+        <v>7</v>
+      </c>
+      <c r="H183" s="37">
+        <v>35</v>
+      </c>
+      <c r="I183" s="37">
         <v>1</v>
       </c>
-      <c r="J183" s="30">
-        <f t="shared" si="2"/>
-        <v>107</v>
+      <c r="J183" s="37">
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -37327,24 +37137,23 @@
       <c r="D184" s="30" t="s">
         <v>819</v>
       </c>
-      <c r="E184" s="30">
-        <v>28</v>
-      </c>
-      <c r="F184" s="30">
-        <v>9</v>
-      </c>
-      <c r="G184" s="30">
-        <v>7</v>
-      </c>
-      <c r="H184" s="30">
-        <v>34</v>
-      </c>
-      <c r="I184" s="30">
-        <v>0</v>
-      </c>
-      <c r="J184" s="30">
-        <f t="shared" si="2"/>
-        <v>78</v>
+      <c r="E184" s="37">
+        <v>76</v>
+      </c>
+      <c r="F184" s="37">
+        <v>16</v>
+      </c>
+      <c r="G184" s="37">
+        <v>33</v>
+      </c>
+      <c r="H184" s="37">
+        <v>77</v>
+      </c>
+      <c r="I184" s="37">
+        <v>2</v>
+      </c>
+      <c r="J184" s="37">
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -37360,24 +37169,23 @@
       <c r="D185" s="30" t="s">
         <v>820</v>
       </c>
-      <c r="E185" s="30">
-        <v>20</v>
-      </c>
-      <c r="F185" s="30">
-        <v>7</v>
-      </c>
-      <c r="G185" s="30">
+      <c r="E185" s="37">
+        <v>38</v>
+      </c>
+      <c r="F185" s="37">
+        <v>14</v>
+      </c>
+      <c r="G185" s="37">
+        <v>2</v>
+      </c>
+      <c r="H185" s="37">
+        <v>13</v>
+      </c>
+      <c r="I185" s="37">
         <v>0</v>
       </c>
-      <c r="H185" s="30">
-        <v>3</v>
-      </c>
-      <c r="I185" s="30">
-        <v>0</v>
-      </c>
-      <c r="J185" s="30">
-        <f t="shared" si="2"/>
-        <v>30</v>
+      <c r="J185" s="37">
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -37393,24 +37201,23 @@
       <c r="D186" s="30" t="s">
         <v>822</v>
       </c>
-      <c r="E186" s="30">
-        <v>91</v>
-      </c>
-      <c r="F186" s="30">
-        <v>48</v>
-      </c>
-      <c r="G186" s="30">
-        <v>32</v>
-      </c>
-      <c r="H186" s="30">
-        <v>74</v>
-      </c>
-      <c r="I186" s="30">
-        <v>3</v>
-      </c>
-      <c r="J186" s="30">
-        <f t="shared" si="2"/>
-        <v>248</v>
+      <c r="E186" s="37">
+        <v>267</v>
+      </c>
+      <c r="F186" s="37">
+        <v>92</v>
+      </c>
+      <c r="G186" s="37">
+        <v>78</v>
+      </c>
+      <c r="H186" s="37">
+        <v>227</v>
+      </c>
+      <c r="I186" s="37">
+        <v>7</v>
+      </c>
+      <c r="J186" s="37">
+        <v>671</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -37426,24 +37233,23 @@
       <c r="D187" s="30" t="s">
         <v>823</v>
       </c>
-      <c r="E187" s="30">
-        <v>38</v>
-      </c>
-      <c r="F187" s="30">
-        <v>35</v>
-      </c>
-      <c r="G187" s="30">
-        <v>4</v>
-      </c>
-      <c r="H187" s="30">
-        <v>11</v>
-      </c>
-      <c r="I187" s="30">
-        <v>0</v>
-      </c>
-      <c r="J187" s="30">
-        <f t="shared" si="2"/>
-        <v>88</v>
+      <c r="E187" s="37">
+        <v>138</v>
+      </c>
+      <c r="F187" s="37">
+        <v>52</v>
+      </c>
+      <c r="G187" s="37">
+        <v>13</v>
+      </c>
+      <c r="H187" s="37">
+        <v>31</v>
+      </c>
+      <c r="I187" s="37">
+        <v>1</v>
+      </c>
+      <c r="J187" s="37">
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -37459,24 +37265,23 @@
       <c r="D188" s="30" t="s">
         <v>668</v>
       </c>
-      <c r="E188" s="30">
-        <v>61</v>
-      </c>
-      <c r="F188" s="30">
-        <v>14</v>
-      </c>
-      <c r="G188" s="30">
-        <v>0</v>
-      </c>
-      <c r="H188" s="30">
-        <v>25</v>
-      </c>
-      <c r="I188" s="30">
-        <v>1</v>
-      </c>
-      <c r="J188" s="30">
-        <f t="shared" si="2"/>
-        <v>101</v>
+      <c r="E188" s="37">
+        <v>173</v>
+      </c>
+      <c r="F188" s="37">
+        <v>20</v>
+      </c>
+      <c r="G188" s="37">
+        <v>4</v>
+      </c>
+      <c r="H188" s="37">
+        <v>59</v>
+      </c>
+      <c r="I188" s="37">
+        <v>2</v>
+      </c>
+      <c r="J188" s="37">
+        <v>258</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -37492,24 +37297,23 @@
       <c r="D189" s="30" t="s">
         <v>824</v>
       </c>
-      <c r="E189" s="30">
-        <v>218</v>
-      </c>
-      <c r="F189" s="30">
-        <v>79</v>
-      </c>
-      <c r="G189" s="30">
-        <v>34</v>
-      </c>
-      <c r="H189" s="30">
-        <v>95</v>
-      </c>
-      <c r="I189" s="30">
+      <c r="E189" s="37">
+        <v>554</v>
+      </c>
+      <c r="F189" s="37">
+        <v>133</v>
+      </c>
+      <c r="G189" s="37">
+        <v>82</v>
+      </c>
+      <c r="H189" s="37">
+        <v>264</v>
+      </c>
+      <c r="I189" s="37">
         <v>0</v>
       </c>
-      <c r="J189" s="30">
-        <f t="shared" si="2"/>
-        <v>426</v>
+      <c r="J189" s="37">
+        <v>1033</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -37525,24 +37329,23 @@
       <c r="D190" s="30" t="s">
         <v>825</v>
       </c>
-      <c r="E190" s="30">
-        <v>40</v>
-      </c>
-      <c r="F190" s="30">
-        <v>17</v>
-      </c>
-      <c r="G190" s="30">
+      <c r="E190" s="37">
+        <v>121</v>
+      </c>
+      <c r="F190" s="37">
+        <v>22</v>
+      </c>
+      <c r="G190" s="37">
         <v>1</v>
       </c>
-      <c r="H190" s="30">
-        <v>11</v>
-      </c>
-      <c r="I190" s="30">
+      <c r="H190" s="37">
+        <v>43</v>
+      </c>
+      <c r="I190" s="37">
         <v>1</v>
       </c>
-      <c r="J190" s="30">
-        <f t="shared" si="2"/>
-        <v>70</v>
+      <c r="J190" s="37">
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -37558,24 +37361,23 @@
       <c r="D191" s="30" t="s">
         <v>826</v>
       </c>
-      <c r="E191" s="30">
-        <v>22</v>
-      </c>
-      <c r="F191" s="30">
-        <v>17</v>
-      </c>
-      <c r="G191" s="30">
-        <v>10</v>
-      </c>
-      <c r="H191" s="30">
-        <v>5</v>
-      </c>
-      <c r="I191" s="30">
+      <c r="E191" s="37">
+        <v>73</v>
+      </c>
+      <c r="F191" s="37">
+        <v>28</v>
+      </c>
+      <c r="G191" s="37">
+        <v>15</v>
+      </c>
+      <c r="H191" s="37">
+        <v>15</v>
+      </c>
+      <c r="I191" s="37">
         <v>0</v>
       </c>
-      <c r="J191" s="30">
-        <f t="shared" si="2"/>
-        <v>54</v>
+      <c r="J191" s="37">
+        <v>131</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -37591,24 +37393,23 @@
       <c r="D192" s="30" t="s">
         <v>827</v>
       </c>
-      <c r="E192" s="30">
-        <v>23</v>
-      </c>
-      <c r="F192" s="30">
-        <v>21</v>
-      </c>
-      <c r="G192" s="30">
-        <v>2</v>
-      </c>
-      <c r="H192" s="30">
-        <v>17</v>
-      </c>
-      <c r="I192" s="30">
-        <v>0</v>
-      </c>
-      <c r="J192" s="30">
-        <f t="shared" si="2"/>
-        <v>63</v>
+      <c r="E192" s="37">
+        <v>67</v>
+      </c>
+      <c r="F192" s="37">
+        <v>28</v>
+      </c>
+      <c r="G192" s="37">
+        <v>7</v>
+      </c>
+      <c r="H192" s="37">
+        <v>35</v>
+      </c>
+      <c r="I192" s="37">
+        <v>1</v>
+      </c>
+      <c r="J192" s="37">
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -37624,24 +37425,23 @@
       <c r="D193" s="30" t="s">
         <v>828</v>
       </c>
-      <c r="E193" s="30">
-        <v>31</v>
-      </c>
-      <c r="F193" s="30">
+      <c r="E193" s="37">
+        <v>97</v>
+      </c>
+      <c r="F193" s="37">
+        <v>29</v>
+      </c>
+      <c r="G193" s="37">
         <v>12</v>
       </c>
-      <c r="G193" s="30">
-        <v>2</v>
-      </c>
-      <c r="H193" s="30">
-        <v>10</v>
-      </c>
-      <c r="I193" s="30">
-        <v>1</v>
-      </c>
-      <c r="J193" s="30">
-        <f t="shared" si="2"/>
-        <v>56</v>
+      <c r="H193" s="37">
+        <v>15</v>
+      </c>
+      <c r="I193" s="37">
+        <v>3</v>
+      </c>
+      <c r="J193" s="37">
+        <v>156</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -37657,24 +37457,23 @@
       <c r="D194" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="E194" s="30">
-        <v>69</v>
-      </c>
-      <c r="F194" s="30">
-        <v>30</v>
-      </c>
-      <c r="G194" s="30">
-        <v>2</v>
-      </c>
-      <c r="H194" s="30">
-        <v>23</v>
-      </c>
-      <c r="I194" s="30">
+      <c r="E194" s="37">
+        <v>168</v>
+      </c>
+      <c r="F194" s="37">
+        <v>43</v>
+      </c>
+      <c r="G194" s="37">
+        <v>6</v>
+      </c>
+      <c r="H194" s="37">
+        <v>77</v>
+      </c>
+      <c r="I194" s="37">
         <v>0</v>
       </c>
-      <c r="J194" s="30">
-        <f t="shared" si="2"/>
-        <v>124</v>
+      <c r="J194" s="37">
+        <v>294</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -37690,24 +37489,23 @@
       <c r="D195" s="30" t="s">
         <v>848</v>
       </c>
-      <c r="E195" s="30">
-        <v>126</v>
-      </c>
-      <c r="F195" s="30">
-        <v>78</v>
-      </c>
-      <c r="G195" s="30">
-        <v>21</v>
-      </c>
-      <c r="H195" s="30">
-        <v>89</v>
-      </c>
-      <c r="I195" s="30">
+      <c r="E195" s="37">
+        <v>351</v>
+      </c>
+      <c r="F195" s="37">
+        <v>158</v>
+      </c>
+      <c r="G195" s="37">
+        <v>50</v>
+      </c>
+      <c r="H195" s="37">
+        <v>254</v>
+      </c>
+      <c r="I195" s="37">
         <v>0</v>
       </c>
-      <c r="J195" s="30">
-        <f t="shared" ref="J195:J213" si="3">SUM(E195:I195)</f>
-        <v>314</v>
+      <c r="J195" s="37">
+        <v>813</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -37723,24 +37521,23 @@
       <c r="D196" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="E196" s="30">
-        <v>445</v>
-      </c>
-      <c r="F196" s="30">
-        <v>273</v>
-      </c>
-      <c r="G196" s="30">
-        <v>50</v>
-      </c>
-      <c r="H196" s="30">
-        <v>340</v>
-      </c>
-      <c r="I196" s="30">
-        <v>5</v>
-      </c>
-      <c r="J196" s="30">
-        <f t="shared" si="3"/>
-        <v>1113</v>
+      <c r="E196" s="37">
+        <v>1239</v>
+      </c>
+      <c r="F196" s="37">
+        <v>527</v>
+      </c>
+      <c r="G196" s="37">
+        <v>178</v>
+      </c>
+      <c r="H196" s="37">
+        <v>1011</v>
+      </c>
+      <c r="I196" s="37">
+        <v>6</v>
+      </c>
+      <c r="J196" s="37">
+        <v>2961</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -37756,24 +37553,23 @@
       <c r="D197" s="30" t="s">
         <v>831</v>
       </c>
-      <c r="E197" s="30">
-        <v>16</v>
-      </c>
-      <c r="F197" s="30">
-        <v>12</v>
-      </c>
-      <c r="G197" s="30">
-        <v>19</v>
-      </c>
-      <c r="H197" s="30">
-        <v>6</v>
-      </c>
-      <c r="I197" s="30">
+      <c r="E197" s="37">
+        <v>40</v>
+      </c>
+      <c r="F197" s="37">
+        <v>33</v>
+      </c>
+      <c r="G197" s="37">
+        <v>51</v>
+      </c>
+      <c r="H197" s="37">
+        <v>17</v>
+      </c>
+      <c r="I197" s="37">
         <v>0</v>
       </c>
-      <c r="J197" s="30">
-        <f t="shared" si="3"/>
-        <v>53</v>
+      <c r="J197" s="37">
+        <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -37789,24 +37585,23 @@
       <c r="D198" s="30" t="s">
         <v>832</v>
       </c>
-      <c r="E198" s="30">
-        <v>65</v>
-      </c>
-      <c r="F198" s="30">
-        <v>74</v>
-      </c>
-      <c r="G198" s="30">
-        <v>23</v>
-      </c>
-      <c r="H198" s="30">
-        <v>40</v>
-      </c>
-      <c r="I198" s="30">
+      <c r="E198" s="37">
+        <v>192</v>
+      </c>
+      <c r="F198" s="37">
+        <v>142</v>
+      </c>
+      <c r="G198" s="37">
+        <v>89</v>
+      </c>
+      <c r="H198" s="37">
+        <v>117</v>
+      </c>
+      <c r="I198" s="37">
         <v>0</v>
       </c>
-      <c r="J198" s="30">
-        <f t="shared" si="3"/>
-        <v>202</v>
+      <c r="J198" s="37">
+        <v>540</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -37822,24 +37617,23 @@
       <c r="D199" s="30" t="s">
         <v>850</v>
       </c>
-      <c r="E199" s="30">
-        <v>109</v>
-      </c>
-      <c r="F199" s="30">
-        <v>60</v>
-      </c>
-      <c r="G199" s="30">
-        <v>8</v>
-      </c>
-      <c r="H199" s="30">
-        <v>40</v>
-      </c>
-      <c r="I199" s="30">
+      <c r="E199" s="37">
+        <v>298</v>
+      </c>
+      <c r="F199" s="37">
+        <v>95</v>
+      </c>
+      <c r="G199" s="37">
+        <v>13</v>
+      </c>
+      <c r="H199" s="37">
+        <v>114</v>
+      </c>
+      <c r="I199" s="37">
         <v>0</v>
       </c>
-      <c r="J199" s="30">
-        <f t="shared" si="3"/>
-        <v>217</v>
+      <c r="J199" s="37">
+        <v>520</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -37855,24 +37649,23 @@
       <c r="D200" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="E200" s="30">
-        <v>66</v>
-      </c>
-      <c r="F200" s="30">
-        <v>34</v>
-      </c>
-      <c r="G200" s="30">
-        <v>3</v>
-      </c>
-      <c r="H200" s="30">
-        <v>43</v>
-      </c>
-      <c r="I200" s="30">
+      <c r="E200" s="37">
+        <v>161</v>
+      </c>
+      <c r="F200" s="37">
+        <v>51</v>
+      </c>
+      <c r="G200" s="37">
+        <v>23</v>
+      </c>
+      <c r="H200" s="37">
+        <v>140</v>
+      </c>
+      <c r="I200" s="37">
         <v>0</v>
       </c>
-      <c r="J200" s="30">
-        <f t="shared" si="3"/>
-        <v>146</v>
+      <c r="J200" s="37">
+        <v>375</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -37888,24 +37681,23 @@
       <c r="D201" s="30" t="s">
         <v>834</v>
       </c>
-      <c r="E201" s="30">
-        <v>1724</v>
-      </c>
-      <c r="F201" s="30">
-        <v>1509</v>
-      </c>
-      <c r="G201" s="30">
-        <v>235</v>
-      </c>
-      <c r="H201" s="30">
-        <v>1727</v>
-      </c>
-      <c r="I201" s="30">
-        <v>6</v>
-      </c>
-      <c r="J201" s="30">
-        <f t="shared" si="3"/>
-        <v>5201</v>
+      <c r="E201" s="37">
+        <v>4353</v>
+      </c>
+      <c r="F201" s="37">
+        <v>2480</v>
+      </c>
+      <c r="G201" s="37">
+        <v>684</v>
+      </c>
+      <c r="H201" s="37">
+        <v>5221</v>
+      </c>
+      <c r="I201" s="37">
+        <v>19</v>
+      </c>
+      <c r="J201" s="37">
+        <v>12757</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -37921,24 +37713,23 @@
       <c r="D202" s="30" t="s">
         <v>835</v>
       </c>
-      <c r="E202" s="30">
-        <v>67</v>
-      </c>
-      <c r="F202" s="30">
-        <v>22</v>
-      </c>
-      <c r="G202" s="30">
-        <v>4</v>
-      </c>
-      <c r="H202" s="30">
-        <v>17</v>
-      </c>
-      <c r="I202" s="30">
-        <v>1</v>
-      </c>
-      <c r="J202" s="30">
-        <f t="shared" si="3"/>
-        <v>111</v>
+      <c r="E202" s="37">
+        <v>206</v>
+      </c>
+      <c r="F202" s="37">
+        <v>52</v>
+      </c>
+      <c r="G202" s="37">
+        <v>24</v>
+      </c>
+      <c r="H202" s="37">
+        <v>39</v>
+      </c>
+      <c r="I202" s="37">
+        <v>2</v>
+      </c>
+      <c r="J202" s="37">
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -37954,24 +37745,23 @@
       <c r="D203" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="E203" s="30">
-        <v>1261</v>
-      </c>
-      <c r="F203" s="30">
-        <v>454</v>
-      </c>
-      <c r="G203" s="30">
-        <v>172</v>
-      </c>
-      <c r="H203" s="30">
-        <v>1168</v>
-      </c>
-      <c r="I203" s="30">
-        <v>9</v>
-      </c>
-      <c r="J203" s="30">
-        <f t="shared" si="3"/>
-        <v>3064</v>
+      <c r="E203" s="37">
+        <v>3671</v>
+      </c>
+      <c r="F203" s="37">
+        <v>851</v>
+      </c>
+      <c r="G203" s="37">
+        <v>510</v>
+      </c>
+      <c r="H203" s="37">
+        <v>3416</v>
+      </c>
+      <c r="I203" s="37">
+        <v>16</v>
+      </c>
+      <c r="J203" s="37">
+        <v>8464</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -37987,24 +37777,23 @@
       <c r="D204" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="E204" s="30">
-        <v>138</v>
-      </c>
-      <c r="F204" s="30">
-        <v>78</v>
-      </c>
-      <c r="G204" s="30">
-        <v>4</v>
-      </c>
-      <c r="H204" s="30">
-        <v>68</v>
-      </c>
-      <c r="I204" s="30">
-        <v>1</v>
-      </c>
-      <c r="J204" s="30">
-        <f t="shared" si="3"/>
-        <v>289</v>
+      <c r="E204" s="37">
+        <v>393</v>
+      </c>
+      <c r="F204" s="37">
+        <v>126</v>
+      </c>
+      <c r="G204" s="37">
+        <v>15</v>
+      </c>
+      <c r="H204" s="37">
+        <v>172</v>
+      </c>
+      <c r="I204" s="37">
+        <v>2</v>
+      </c>
+      <c r="J204" s="37">
+        <v>708</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -38020,24 +37809,23 @@
       <c r="D205" s="30" t="s">
         <v>836</v>
       </c>
-      <c r="E205" s="30">
+      <c r="E205" s="37">
+        <v>66</v>
+      </c>
+      <c r="F205" s="37">
+        <v>6</v>
+      </c>
+      <c r="G205" s="37">
+        <v>1</v>
+      </c>
+      <c r="H205" s="37">
         <v>19</v>
       </c>
-      <c r="F205" s="30">
-        <v>6</v>
-      </c>
-      <c r="G205" s="30">
-        <v>0</v>
-      </c>
-      <c r="H205" s="30">
-        <v>11</v>
-      </c>
-      <c r="I205" s="30">
-        <v>1</v>
-      </c>
-      <c r="J205" s="30">
-        <f t="shared" si="3"/>
-        <v>37</v>
+      <c r="I205" s="37">
+        <v>3</v>
+      </c>
+      <c r="J205" s="37">
+        <v>95</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -38053,24 +37841,23 @@
       <c r="D206" s="30" t="s">
         <v>837</v>
       </c>
-      <c r="E206" s="30">
-        <v>70</v>
-      </c>
-      <c r="F206" s="30">
-        <v>33</v>
-      </c>
-      <c r="G206" s="30">
-        <v>16</v>
-      </c>
-      <c r="H206" s="30">
-        <v>31</v>
-      </c>
-      <c r="I206" s="30">
+      <c r="E206" s="37">
+        <v>158</v>
+      </c>
+      <c r="F206" s="37">
+        <v>71</v>
+      </c>
+      <c r="G206" s="37">
+        <v>41</v>
+      </c>
+      <c r="H206" s="37">
+        <v>94</v>
+      </c>
+      <c r="I206" s="37">
         <v>0</v>
       </c>
-      <c r="J206" s="30">
-        <f t="shared" si="3"/>
-        <v>150</v>
+      <c r="J206" s="37">
+        <v>364</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -38086,24 +37873,23 @@
       <c r="D207" s="30" t="s">
         <v>838</v>
       </c>
-      <c r="E207" s="30">
-        <v>33</v>
-      </c>
-      <c r="F207" s="30">
-        <v>9</v>
-      </c>
-      <c r="G207" s="30">
-        <v>4</v>
-      </c>
-      <c r="H207" s="30">
-        <v>18</v>
-      </c>
-      <c r="I207" s="30">
-        <v>0</v>
-      </c>
-      <c r="J207" s="30">
-        <f t="shared" si="3"/>
-        <v>64</v>
+      <c r="E207" s="37">
+        <v>86</v>
+      </c>
+      <c r="F207" s="37">
+        <v>16</v>
+      </c>
+      <c r="G207" s="37">
+        <v>7</v>
+      </c>
+      <c r="H207" s="37">
+        <v>57</v>
+      </c>
+      <c r="I207" s="37">
+        <v>2</v>
+      </c>
+      <c r="J207" s="37">
+        <v>168</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -38119,24 +37905,23 @@
       <c r="D208" s="30" t="s">
         <v>839</v>
       </c>
-      <c r="E208" s="30">
-        <v>28</v>
-      </c>
-      <c r="F208" s="30">
-        <v>5</v>
-      </c>
-      <c r="G208" s="30">
+      <c r="E208" s="37">
+        <v>70</v>
+      </c>
+      <c r="F208" s="37">
+        <v>9</v>
+      </c>
+      <c r="G208" s="37">
+        <v>1</v>
+      </c>
+      <c r="H208" s="37">
+        <v>35</v>
+      </c>
+      <c r="I208" s="37">
         <v>0</v>
       </c>
-      <c r="H208" s="30">
-        <v>11</v>
-      </c>
-      <c r="I208" s="30">
-        <v>0</v>
-      </c>
-      <c r="J208" s="30">
-        <f t="shared" si="3"/>
-        <v>44</v>
+      <c r="J208" s="37">
+        <v>115</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -38152,24 +37937,23 @@
       <c r="D209" s="30" t="s">
         <v>840</v>
       </c>
-      <c r="E209" s="30">
-        <v>58</v>
-      </c>
-      <c r="F209" s="30">
-        <v>55</v>
-      </c>
-      <c r="G209" s="30">
-        <v>18</v>
-      </c>
-      <c r="H209" s="30">
-        <v>16</v>
-      </c>
-      <c r="I209" s="30">
-        <v>0</v>
-      </c>
-      <c r="J209" s="30">
-        <f t="shared" si="3"/>
-        <v>147</v>
+      <c r="E209" s="37">
+        <v>161</v>
+      </c>
+      <c r="F209" s="37">
+        <v>186</v>
+      </c>
+      <c r="G209" s="37">
+        <v>41</v>
+      </c>
+      <c r="H209" s="37">
+        <v>46</v>
+      </c>
+      <c r="I209" s="37">
+        <v>1</v>
+      </c>
+      <c r="J209" s="37">
+        <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -38185,24 +37969,23 @@
       <c r="D210" s="30" t="s">
         <v>841</v>
       </c>
-      <c r="E210" s="30">
-        <v>43</v>
-      </c>
-      <c r="F210" s="30">
+      <c r="E210" s="37">
+        <v>104</v>
+      </c>
+      <c r="F210" s="37">
+        <v>34</v>
+      </c>
+      <c r="G210" s="37">
         <v>11</v>
       </c>
-      <c r="G210" s="30">
-        <v>2</v>
-      </c>
-      <c r="H210" s="30">
-        <v>18</v>
-      </c>
-      <c r="I210" s="30">
-        <v>2</v>
-      </c>
-      <c r="J210" s="30">
-        <f t="shared" si="3"/>
-        <v>76</v>
+      <c r="H210" s="37">
+        <v>59</v>
+      </c>
+      <c r="I210" s="37">
+        <v>3</v>
+      </c>
+      <c r="J210" s="37">
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -38218,24 +38001,23 @@
       <c r="D211" s="30" t="s">
         <v>842</v>
       </c>
-      <c r="E211" s="30">
-        <v>186</v>
-      </c>
-      <c r="F211" s="30">
-        <v>74</v>
-      </c>
-      <c r="G211" s="30">
-        <v>6</v>
-      </c>
-      <c r="H211" s="30">
-        <v>83</v>
-      </c>
-      <c r="I211" s="30">
-        <v>0</v>
-      </c>
-      <c r="J211" s="30">
-        <f t="shared" si="3"/>
-        <v>349</v>
+      <c r="E211" s="37">
+        <v>517</v>
+      </c>
+      <c r="F211" s="37">
+        <v>130</v>
+      </c>
+      <c r="G211" s="37">
+        <v>22</v>
+      </c>
+      <c r="H211" s="37">
+        <v>231</v>
+      </c>
+      <c r="I211" s="37">
+        <v>3</v>
+      </c>
+      <c r="J211" s="37">
+        <v>903</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -38251,24 +38033,23 @@
       <c r="D212" s="30" t="s">
         <v>843</v>
       </c>
-      <c r="E212" s="30">
-        <v>44</v>
-      </c>
-      <c r="F212" s="30">
-        <v>16</v>
-      </c>
-      <c r="G212" s="30">
-        <v>3</v>
-      </c>
-      <c r="H212" s="30">
-        <v>17</v>
-      </c>
-      <c r="I212" s="30">
-        <v>3</v>
-      </c>
-      <c r="J212" s="30">
-        <f t="shared" si="3"/>
-        <v>83</v>
+      <c r="E212" s="37">
+        <v>165</v>
+      </c>
+      <c r="F212" s="37">
+        <v>18</v>
+      </c>
+      <c r="G212" s="37">
+        <v>4</v>
+      </c>
+      <c r="H212" s="37">
+        <v>52</v>
+      </c>
+      <c r="I212" s="37">
+        <v>9</v>
+      </c>
+      <c r="J212" s="37">
+        <v>248</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -38284,24 +38065,23 @@
       <c r="D213" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="E213" s="30">
-        <v>72</v>
-      </c>
-      <c r="F213" s="30">
-        <v>23</v>
-      </c>
-      <c r="G213" s="30">
-        <v>1</v>
-      </c>
-      <c r="H213" s="30">
-        <v>29</v>
-      </c>
-      <c r="I213" s="30">
+      <c r="E213" s="37">
+        <v>170</v>
+      </c>
+      <c r="F213" s="37">
+        <v>34</v>
+      </c>
+      <c r="G213" s="37">
+        <v>7</v>
+      </c>
+      <c r="H213" s="37">
+        <v>78</v>
+      </c>
+      <c r="I213" s="37">
         <v>0</v>
       </c>
-      <c r="J213" s="30">
-        <f t="shared" si="3"/>
-        <v>125</v>
+      <c r="J213" s="37">
+        <v>289</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -38674,21 +38454,21 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="18" t="s">
         <v>903</v>
       </c>
@@ -38714,7 +38494,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="22" t="s">
         <v>904</v>
       </c>
@@ -38738,7 +38518,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="22" t="s">
         <v>905</v>
       </c>
@@ -38762,7 +38542,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="22" t="s">
         <v>906</v>
       </c>
@@ -38786,7 +38566,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="22" t="s">
         <v>907</v>
       </c>
@@ -38810,7 +38590,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="22" t="s">
         <v>908</v>
       </c>
@@ -38834,7 +38614,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="22" t="s">
         <v>909</v>
       </c>
@@ -38857,7 +38637,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="22" t="s">
         <v>910</v>
       </c>
@@ -38881,7 +38661,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="22" t="s">
         <v>911</v>
       </c>
@@ -38905,7 +38685,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="22" t="s">
         <v>912</v>
       </c>
@@ -38928,7 +38708,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="22" t="s">
         <v>913</v>
       </c>
@@ -38952,7 +38732,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="22" t="s">
         <v>914</v>
       </c>
@@ -38976,7 +38756,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="22" t="s">
         <v>915</v>
       </c>
@@ -39000,7 +38780,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="22" t="s">
         <v>916</v>
       </c>
@@ -39024,7 +38804,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="22" t="s">
         <v>917</v>
       </c>
@@ -39047,7 +38827,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="22" t="s">
         <v>918</v>
       </c>
@@ -39071,7 +38851,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="22" t="s">
         <v>919</v>
       </c>
@@ -39094,7 +38874,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="22" t="s">
         <v>920</v>
       </c>
@@ -39118,7 +38898,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="22" t="s">
         <v>921</v>
       </c>
@@ -39142,7 +38922,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="22" t="s">
         <v>922</v>
       </c>
@@ -39166,7 +38946,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="22" t="s">
         <v>923</v>
       </c>
@@ -39190,7 +38970,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="22" t="s">
         <v>924</v>
       </c>
@@ -39214,7 +38994,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="22" t="s">
         <v>925</v>
       </c>
@@ -39238,7 +39018,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="22" t="s">
         <v>926</v>
       </c>
@@ -39261,7 +39041,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="22" t="s">
         <v>927</v>
       </c>
@@ -39285,7 +39065,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="22" t="s">
         <v>928</v>
       </c>
@@ -39309,7 +39089,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="22" t="s">
         <v>929</v>
       </c>
@@ -39333,7 +39113,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="22" t="s">
         <v>930</v>
       </c>
